--- a/500all/speech_level/speeches_CHRG-114hhrg98416.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98416.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="237">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400224</t>
   </si>
   <si>
-    <t>John Kline</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Kline. A quorum being present, the Committee on Education and the Workforce will come to order. Good morning, everyone, welcome to today's hearing. I want to thank our witnesses for joining us as we discuss ways to expand educational opportunity through school choice.    This committee's work to improve K-12 education has always been guided by the belief that every child regardless of where they come from or how much money their parents make should receive an excellent education.    Unfortunately, some schools are failing to provide students that opportunity. Too many of our nation's students are entering high school without the critical skills they need to complete their education, and too many graduates are going off to college or entering the workforce without the tools they need to succeed in life.    Everyone here agrees our children deserve better. They deserve the opportunity to receive a better education and pursue a better life. That is why improving K-12 education continues to be such an important priority at the federal, state, and local levels.    By empowering parents to do what is best for their child, school choice has been an instrumental part of that effort.    When we passed legislation last year to improve K-12 education, empowering parents was one of our primary goals because we know parents can make the most meaningful difference in their child's education.    Several reforms in the Every Student Succeeds Act help parents do what is best for their child's education by expanding school choice, reforms such as increasing access to quality charter schools and magnet schools, protecting home schools from federal interference, and launching a pilot program that will encourage excellent schools to enroll harder to serve students.    While these reforms are encouraging, education leaders in state capitals and local school districts are the real reason why the promise of school choice has touched the lives of so many parents and children. The progress we have seen over the last 25 years is remarkable.    The school choice movement began in Milwaukee, Wisconsin in 1990, where local leaders piloted the first private school choice program, known as the Milwaukee Parental Choice Program. The pilot provided low income families scholarships to attend a quality school.    Since then, the program has paved the way for thousands of students to receive a better education and inspired 27 other states to create different types of private school choice programs, many of which have been credited with helping students graduate not only from high school but from college as well.    My home state of Minnesota was not far behind Milwaukee in expanding educational opportunities for students and families. We never really consider ourselves behind Milwaukee, but in 1991, the state passed the nation's first charter school law, providing parents an alternative public school option that better met their child's needs.    Today, more than 40 states have passed charter school laws opening the doors to thousands of schools that have served millions of students.    These are just a few examples of how school choice is helping students and families. Last week marked the 5th Annual National School Choice Week, where more than 16,000 events in all 50 states showcased the success of school choice from private school scholarships and public charter schools, to home schooling and education savings accounts.    In all its forms, school choice has provided real hope to mom's, dad's, and children across the country.    Today, as we learn more about how states and local communities are expanding school choice, I encourage my colleagues to ask how we can support these efforts and help more children receive the education they deserve.    With that, I will yield to the Ranking Member, Mr. Scott, for his opening remarks.</t>
   </si>
   <si>
     <t>400364</t>
   </si>
   <si>
-    <t>Robert C. "Bobby" Scott</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Scott. Thank you, Mr. Chairman. Today, we will discuss the private school choice initiatives that have proliferated throughout the country for the last 20 years.    As you know, educational funds provided by the Federal Government do not exist in a vacuum. Drastic cuts in general education budgets in a number of states threaten the ability to fully implement initiatives to improve the quality of education for students nationwide.    Today, we have before us yet another challenge to the limited pool of funding, one that serves to divert public funds to subsidize the private education of a relatively small number of children at the expense of a larger majority attending public schools.    More broadly, the legacy of ESEA that improvements in education support a basic civil right and should benefit all of our children--that concept is at risk.    Private school choice programs, be they vouchers or tax credits and educational savings accounts, purport to be part of that same legacy. They also claim to provide the neediest children with the ability to make a choice to attend higher performing schools beyond their means.    State-collected data show that more than two-thirds of the students in the Wisconsin Choice Program and about half of the Indiana voucher recipients were enrolled in private schools before they received the voucher. Instead of providing a choice to students in underperforming schools, these programs are using public money to pay tuition for students already in private schools.    Mr. Chairman, in the early 1990s, this committee had a subcommittee hearing in Wisconsin, and information we gleaned from that hearing showed that the cost of covering those who were already in private schools, the cost of providing them with a voucher, would have diverted the equivalent of about $25,000 per classroom into private vouchers, denying the people in public schools that benefit.    In addition to these programs not serving a population they were legislatively created to support, once advertised as protecting a civil right for low-income families and their children, private school choice programs in Wisconsin, North Carolina, and Florida are raising eligibility requirements to emaking tuition assistance available to those from much higher income brackets.    The impact of these changes is not readily apparent considering that not all programs require schools to accept vouchers as full tuition compensation. The family well below the poverty level faces limitations in the choice of schools available to them - limitations that families with more resources do not suffer.    An example of this can be found right here in our nation's capital where over half of the participants in the D.C. Opportunity Program are enrolled in just 8 out of 50 schools. Tuition at these schools is entirely covered by the voucher, but less than a quarter of all available schools have viable options, and the idea that parents have a real choice must be called into question.    Once families overcome barriers to admissions due to financial concerns, private school choice sleave them and their students without the protections required of public school systems enforced by federal statutes.    Studies have indicated that students in voucher programs are less likely to have equitable access to key services such as ESOL and special education, services that private schools in many states are not obligated to provide.    Regarding attrition in programs like Wisconsin's Parental School Choice Program, one study found that those who leave by choice or otherwise tend to be the more disadvantaged than those who remain.    Families are enrolling in private schools with the expectation that they will provide greater academic outcomes for their families and their children but sadly, this is frequently not the case. Evidence of private schools participating in choice programs increasing academic achievement compared to public schools is limited. number of studies in Cleveland, Milwaukee, and Washington, D.C. found no positive effects on student achievement as a result of participation. In fact, participation in scholarship programs in Louisiana was found to have a substantial negative effect on academic achievement in math, reading, science, and social studies.    Today, we are left discussing the false choice for families in need, one that puts at risk the idea of our shared future successes, which is most certain when we invest in equitable education and educational opportunities for all students, and this may threaten the basic civil rights protections of the students that we are trying to protect.    Mr. Chairman, I look forward to the testimony of our witnesses, and yield back the balance of my time.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>400643</t>
   </si>
   <si>
-    <t>Virginia Foxx</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Foxx. Thank you, Chairman Kline. Today, I have the honor of introducing a witness hailing from my home State of North Carolina, Representative Rob Bryan. He is well qualified to serve as a witness on education and school choice as he spent his first two years after college in the Teach for America Program at a classroom in inner-city Los Angeles. Today, he is also a member of BEST North Carolina, where he works with the North Carolina Teacher of the Year, James Ford, to identify the best evidence based strategies to pay, evaluate, and retain teachers.    Representative Bryan is a member of the North Carolina House of Representatives, where he is the chairman of the Education Appropriations Subcommittee, and a member of the Education Committee. He also co-chaired the North Carolina General Assembly's Educator Compensation and Effectiveness Taskforce.    In addition to his work in education, Representative Bryan serves as a lawyer at the Womble Carlyle Sandridge &amp; Rice law firm. He graduated from fine North Carolina universities, UNC-Chapel Hill and the Duke University's Law School. He and his wife, Dottie have six children and attend Uptown Church. It may be his parenting six children that give him the best expertise.</t>
   </si>
   <si>
@@ -88,36 +79,24 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Robinson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Robinson. Good morning, Chairman Kline, Ranking Member Scott, members of the committee. My name is Gerard Robinson. I am a Resident Fellow at the American Enterprise Institute. What I share with you today are my own opinions and do not necessarily reflect those of the AEI.    I have had an opportunity to work in education since 1991, and I have seen the impact of school choice policies and programs on families and children through the lens of an advocate, president of a non-profit organization, state leader in Virginia and Florida, and as a researcher.    I can tell you quite clearly that school choice is not a sound bite, it is a social movement. From 1990 to 2015, over 40 states have introduced different types of school choice legislation, both public and private. Today, I will talk briefly about four, charter schools, vouchers, tax credits, and education savings accounts.    I have had an opportunity to see all these programs in action, and one thing I would like to say up front is there is a misconception that school choice only helps wealthy families. The reality is families with means already exercise school choice. They do so by moving into neighborhoods where they have great schools, both public and private. School choice is simply expanding the doors of opportunity to families who may not have that opportunity.    One example is in the charter school movement what started off initially as an experiment to provide teachers a stronger voice and innovative ideas in public schools has now mushroomed into a movement where we have 2.9 million students in 43 states in 6,723 charter schools, who are doing well.    Taxpayers and families simply want to know one thing, do they work. According to a CREDO study in 2015 that looked at 42 areas in 22 states, they identified there were at least 40 days' worth of learning gain for students in math, and 28 days in reading. There was particular growth for African American students, 36 learning days for math and 26 for reading. Similar growth for Hispanic students. We also found growth as well for Asian students, particularly in math.    Frankly, there were also some challenges, our Native American students and some of our white students scored less well than their peers.    We move now to vouchers, it was mentioned earlier, vouchers in Milwaukee. I had a chance to work there firsthand. Same question, is it making a difference? Well, according to at least 13 gold standard studies, six have found that the students in a voucher program had gains, four in particular found there were gains for African American students, two found no major differences, and at least one found there were negative differences, particularly in the sciences and math, and in particular, that was Louisiana.    Vouchers made a tremendous impact on the lives of students in Milwaukee and other areas, and we can talk further about that point.    Tax credits, I would say one of the faster growing movements in the private school sector. You now have a number of students, over approximately 200,000, who are involved in tax credits. The same question, do they work?    If you take a look at Florida, which has the largest tax credit program in the country, over 72,000 students there, Dr. Figlio, a professor at Northwestern University, studied a program for a number of years, and he found two things. In a 2014 study, he identified there was at least a year's growth for students who were in that program.    Why is that important? The majority of the students who participated in that program, (a) came from lower performing public schools and tend to be among the lower performing students who left public schools, and secondly, they have an opportunity now to see gains in that area.    Next is education savings accounts. We now have those in Florida, Mississippi, Nevada, Tennessee, and it started off in Arizona. Smaller movement, but we expect to see some growth in that area. There are currently 6,772 students who are involved in that program in Florida, Arizona, and Mississippi.    If there is something that Congress can do to support school choice, here are a few examples. Number one is to encourage states to take full advantage of language that you have in ESSA to allow them to be innovative with public funds.    Number two is to make Title I funds portable. I know that caused a great deal of consternation for the Congress, maybe one place where we can find middle ground is to allow states to make that decision.    Third is to make IDEA funds available through a statewide voucher. Fourth is to continue to support statewide vouchers. Fifth, either direct the Congressional Budget Office or the General Accounting Office to figure out what federal regulations are in place, to how we can streamline those to help funds support ESSAs, and lastly, redesign 529s so families can have that information earlier.    Thank you for your time.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Kline. Thank you for your testimony. Mr. Bryan?</t>
   </si>
   <si>
-    <t>Bryan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bryan. It is an honor for me to be here this morning. As you guys are well aware, legislators, like the laborers in the Bible parables, arrive at different times and play different roles in harvesting and planting crops. By that I mean sponsoring and getting good legislation passed.    Working for school choice and opportunity scholarships in particular has been a long labor. In North Carolina, there was much sowing of seeds to expand opportunities for parents and students across our state.    As a freshman legislator in 2013, I had the privilege of arriving at the right time to be a part of those first fruits for school choice in North Carolina.    By way of my background, and going back about 20 years, I was an early Teach for America teacher in a bilingual classroom in inner-city Los Angeles. Between my two years of teaching, I was the first intern at the Center for Education Reform right here in D.C.    These experiences have shaped my perspective as a legislator and made me a fan of expanding school choice options, especially for low income families who typically have the fewest options.    All this led me to be the primary sponsor of the opportunity scholarship law, which provides roughly 6,000 low income students and their families a scholarship to go to the school of their choice. Moreover, I am proud that this historic legislation had bipartisan leadership, with two Republicans and two Democrats serving as the primary sponsors standing together to make this opportunity a reality for thousands of students.    We also had our state's first school choice program, the special needs education grant, passed in 2011, which was also passed with broad bipartisan support.    Unfortunately, many establishment folks in education and often the press are not fans of opportunity scholarships. They outline fears and pessimism, concerns over bad schools and lack of regulation, while neglecting our hopes, the opportunities, and the evidence.    As a lawyer, I appreciate looking at the evidence. There are significant pieces of evidence that are available in discussing opportunity scholarships. I think in reverse order of importance, they are that opportunity scholarships actually save money, both at the state and local level. They improve public schools, and most importantly, they improve outcomes for students.    I think this has been good policy for North Carolina and for the rest of the country. Where does this policy intersect with reality for the families in each of your districts and mine? It is easy for us to fail to recognize the real lives impacted. The needs of these families are compelling. The opportunity scholarship program and our existing special needs program have provided new opportunities and challenges.    Our special needs scholarship to date, all the funds have been used, and there are over 500 families on a waiting list. Our opportunity scholarship program has over 13,000 applicants, and this figure will go up as the application period has just opened again.    I know numbers are thrown at all of us constantly, but please try to individualize these numbers. Think about each one of the families that is hoping, waiting for a scholarship. I have had to look these parents in the eyes, and it can wait no longer. We need to provide choices for them.    Distinguished members of this committee, we expect options and choices in today's world. Many families who can afford to are already exercising those options.    I am happy to say that North Carolina through the passage and implementation of these scholarship programs is now creating pathways for lower income and working families to participate in parental school choice, and they are doing so by the thousands.    Unfortunately, thousands more need your help. Although I am here representing the great State of North Carolina, I know there are other states like ours who appreciate the fact that you, our members of the United States House of Representatives, are exploring ideas of how more can be done to help families like the ones I have described.    I am also glad to be here to highlight the impact, the positive impact opportunity scholarships are having in North Carolina. As I look out my window on the 35th floor, I look down and see First Baptist Church. First Baptist Church is now housing the Brookstone Schools, which is an academically excellent urban Christian school serving low-income families. This school has a rich history of engaging, educating, and empowering students that come out of poverty and often the most dysfunction families and communities.    Brookstone Schools participate in the opportunity scholarship program where they have enrolled 23 students this year. I am fortunate to see much of the City of Charlotte out my window, but this view of the Brookstone Schools has become my favorite.    Chairman Kline and Ranking Member Scott, and distinguished members of the committee, I want to thank you again for your initiative in holding this hearing, and I am honored to have had the opportunity to share with you this morning.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Kline. Thank you, sir. Dr. Huerta?</t>
   </si>
   <si>
-    <t>Huerta</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Huerta. Good morning, Chairman Kline, Ranking Member Scott, and members of the House Education and Workforce Committee. Thank you for the opportunity to speak with you this morning.    My presentation this morning will focus on many of the claims promoted by many voucher advocates followed by a discussion of assumptions linked to these claims, and more importantly, the evidence that provides facts that dispel the many claims, some of which we have already heard.    I will focus on issues of achievement, as well as less discussed issues linked to the supply side response and potential pitfalls that have not been considered by policy makers as voucher and tuition tax credit programs go to scale.    The first claim that we often hear is that private schools are more cost effective and efficient in educating all students compared to public schools. This claim equates private school tuition often with the cost of actually educating students, and assumes that private schools can actually educate all students, including special ed, limited English proficient, and other students with higher needs, more cost effectively than public schools.    The claim fails to acknowledge that the cost differentials including services provided and types of students that are served are important in fully accounting for the real cost of voucher and tuition tax credit programs.    Measuring the cost effectiveness of private schools must also weigh the quality amount of services provided to all students, including the number and types of students, church subsidies and endowments that are provided that are not accounted for in public accounting, low cost facilities and low wage teachers. We know teachers in private schools usually earn about 20 to 25 percent less than public schools. The administrative and financial burdens of operating these choice programs which fall on the state.    In addition, measuring efficiency must also weigh the challenges of taking voucher and tuition tax credit programs to scale. Increased demand for private schooling will require participating private schools to actually address the needs of all students with diversities, and provide services equivalent to the public school systems, which could essentially address some of these cost differentials.    The next claim that we often hear is voucher and tuition tax credit programs will enhance school choice by making private school tuition more affordable and increasing access for all students.    This claim assumes that voucher and tuition tax credit programs offer an adequate economic incentive to offset the cost of private school tuition for all families. This claim fails to acknowledge that the expansion of private school choice is more dependent on a criteria schools use in choosing students and less dependent on giving parents the ability to choose schools.    Private school tuition rates are not regulated by states, nor do states actually collect accurate information on private school tuition rates. Without an accurate account of actual tuition costs, parents are not informed of additional costs they must bear. The scholarship amounts may result in only partial payment in some cases, which will threaten the guarantee that is linked to most state constitutions, to provide a free and public education.    Another issue that is seldom not talked about is tuition elasticity, which is dependent on which private schools participate, the subsidy amounts, and the types of students that private schools actually serve.    Because states do not regulate tuition prices, families that use the benefit to enter private schools today may not have sufficient residual income to pay for tuition later.    Another issue is supply side response, which is seldom accounted for, and that is specifically the extent of open seats that are available and how open seats should become made available as we go to scale.    The U.S. Conference of Catholic Bishops has been very active in lobbying for tuition subsidies, and it is also realistic in acknowledging that a much larger benefit is needed to entice families to exit public schools. There have been estimates by the Minnesota Catholic Conference that for them to actually increase the supply of empty seats, they would have to have a subsidy in the amount of $14,000 to $16,000 to actually increase capital improvements.    I am going to switch to academic achievement issues, which has already been mentioned. The claim is that private schools are more effective than public schools in addressing students' academic needs and improving students' educational outcomes.    This claim assumes that private schools are more effective in serving the educational needs of all students, including special ed, English language learners, and other students.    Evidence of voucher program effectiveness remains uncertain, and with inconsistent effects on student academic growth, and thus, these results should be interpreted with high caution.    For example, an analysis of voucher studies completed prior to 2009 by C.E. Rouse, professor at Princeton, concluded that research on vouchers finds relatively small achievement gains for voucher students, most of which are not statistically different than zero, and secondary effects on remaining public schools, such as competition, are not positive.    Voucher advocates continue to cite the so-called ``gold standard studies'' promoted by the Friedman Foundation. Remember, the Friedman Foundation is a voucher advocacy group, irresponsibly failing to acknowledge that many limitations that the very authors of these studies warn against in their research have not been posted on their Web site.    Specifically, the studies promoted by the Friedman Foundation failed to report inconsistent findings across these so-called gold standard studies. For example, some of the studies reflect positive gains for some students but not across all grade levels that received the voucher treatment. Some studies that reflect positive impacts do not include all voucher students, leaving out a significant portion of the sample. Also, most positive effects are isolated to a specific grade level and to a specific student characteristic, and seldom in both reading and math, and across all grade levels.    In other words, results are haphazard, inconsistent, and some of the very authors that are cited in these so-called gold standard studies actually worry about these inconsistent results that should not be used to inform policy decisions.    We already heard the most recent findings from the D.C. Opportunity Scholarship Program where there was no conclusive evidence of the students that participated after 5 years, and we have also heard about the Louisiana study that recently came out, where we actually see some negative effects on students that actually took on vouchers.    Lastly, Lubienski &amp; Lubienski, and Chris Lubienski has testified before this committee, looked at a study that has looked at public versus traditional school achievement, has indicated that when we control for specific characteristics, that public schools in general outperform kids that are in private schools.    I will provide more recommendations in the question and answer session. Thank you for your time.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Kline. Thank you. Ms. Merriweather, you are recognized.</t>
   </si>
   <si>
-    <t>Merriweather</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Merriweather. Good morning. Thank you so much for having me today. It is an esteemed honor to share my story with everyone.    When I was growing up, college was a dream that I did not even know I had, and if it was not for the educational option Florida gave me 12 years ago, I would not be sitting here today.    If you were to rewind my life back when I was in elementary school, you would see someone totally different, someone who was disruptive, the teachers dreaded having come through the door, someone who got into physical fights with her classmates, someone who was destined to drop out before she made it to high school, but thankfully, I did not become a statistic.    Growing up, I was a student who did not pick up concepts and ideas very quickly, and I struggled to keep up with my classmates. I moved around town constantly when I lived with my biological mother, and consequently, that meant I missed a lot of days of school, my grades were terrible, and everything seemed to go down hill.    Each time I moved, it was very hard for me to adjust to my different school, the different teachers, different classmates. I got picked on by students because I was doing so poorly in school. I was often bullied. I kept getting into fights, and to make matters worse, I ended up failing the third grade not once but twice.    All too well, it seemed my future was mapped out for me. I would follow in the footsteps of my mother, my brother, and my uncle, who all dropped out of school.    I hated going to school, and it was a nightmare. I thought school was a punishment for being the kid. One of the first things my godmother wanted to do when I began to live with her permanently the summer before my 6th grade year, was to find a better school environment for me, and that is when she heard about Esprit de Corps Center for Learning, a small private school in Jacksonville, Florida, but she could not afford the tuition.    A friend of hers told her about the tax credit scholarship program, Step Up for Students. Although she had to pay a little bit more to go along with the scholarship, she was willing to sacrifice for my education. And to be honest, Esprit de Corps was just the change I needed.    Before I even stepped foot on my new school's campus, I met with one of the teachers there, and she helped me to learn my times tables with my reading because it was so low, and some other concepts that I could not grasp. When I started at Esprit de Corps in the 6th grade, the adjustment was fairly smooth because of the extra attention that I received.    This class size was so small, I only had eight students in my class, and it was awesome because the teachers could walk around and ask us questions about things that we had questions on and things we did not know we had questions on.    As the time at Esprit de Corps passed, by the first semester, my grades went from Ds and Fs to As and Bs, and I continued to make the Honor Roll constantly.    I say here to you guys today that Esprit de Corps really changed my life. It gave me a new perspective on education, and it gave me a passion to want to learn. They even helped me to fund my ACT, SAT, and college application fees.    The motto at Esprit de Corps is a school where learning is a joy, excellence is the norm, and superiority is our goal, and that was insistently graved into me. Although when I first started at Esprit de Corps, I was behind, it became a competition, and I wanted to meet their expectations.    In 2010, I became the first in my family to graduate from high school, and in 2014, I became the first in my family to earn my Bachelor's degree, and in 2017, I will be the first to earn my graduate degree.    The cycle of poverty is ending in my family because of the Florida tax credit scholarship. I received a quality education and because of my example, my siblings are now seeing how to take advantage of educational opportunities that come their way.    I am committed to advocating for educational options because so many doors have been opened for me, and I want to create those same open doors for other students. I have seen the power of tailored education demonstrated in my own life, and I would like to see it expanded in future generations and in this one.    It has proven to be effective in my life, school choice, and I am so thankful to share my story with you guys today. Thank you so much.</t>
   </si>
   <si>
@@ -127,9 +106,6 @@
     <t>412540</t>
   </si>
   <si>
-    <t>Luke Messer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Messer. Thank you, Mr. Chairman. You are a man of your word. Thank you for holding this hearing. You are a great advocate for kids and have spent a career as an advocate for educational choice opportunities.    Ms. Merriweather, I am moved by your story. As somebody who has worked very hard on these issues in Indiana before my time in Congress, I have talked to hundreds of people who have a story just like yours. It is part of why I have so much passion for this issue.    You know, there are several reasons that I am so passionate about school choice. Part of it is I believe it is the civil rights issue of our time. It gets to the essence of the American idea, this idea in the second paragraph of the Declaration of Independence, that we all are endowed by our creator with the right to pursue happiness. In modern life, we take that as your opportunity to live the American dream. To have that dream a reality in modern America, it all starts with an education.    Secondly, I am passionate about this because, you know, there is a lot in this debate that is complicated, but there are some things that are not very complicated. To me, what is not very complicated is this: if we want to determine what the best option is for a child, we ought to ask their parents. The best way to determine what is the best path for a child's future is to let that parent decide what is the best option for them.    I have seen in Indiana what happens when those options open up. In Indiana, we now have 200,000 families, 200,000 kids, who are taking advantage of educational opportunities through vouchers, through charters, through public school choice opportunities, virtual school, and the like.    It is amazing, as Mr. Bryan talked about, as he has seen in North Carolina. When the families come--each year, we have a rally at our state house where thousands of families show up. They are part of this program and advocating for it to continue in the future. Those families are a mosaic of our state. Every race, color, and creed, religion, economic background, all just looking for an opportunity to have their shot at the American dream.    You know, today's conversation will no doubt talk about a lot of the complexities that come with providing educational opportunities for kids in America, what is the appropriate role of the Federal Government, what's the pitfalls, philosophical concerns.    All that debate is legitimate; right? We all need to remember as we work through that debate that as we wait, as we frankly dither, millions of kids in this country are going to go to a school today where they do not really have a chance to succeed, and we can do better. We can make sure that every kid in America has a chance.    So now, with that, and again I appreciate the chairman giving me the opportunity to start here, you know, it is interesting as we talk about statistics, one of the things that has changed as this movement, as Mr. Robinson talked about, has evolved, is the popularity of these programs.    A recent poll came out, released just a few days ago, by the Beck Research and the American Federation for Children, and it says choice programs, educational choice are favored, 74 percent of parents favor these options, 23 percent oppose. Seventy-six percent of African Americans favor, 20 oppose. Seventy-six percent of Latino's favor, 21 oppose. Millennials now, 75 percent favor.    Mr. Robinson, could you talk a little, why do you think these programs--why do you think parents support school choice?</t>
   </si>
   <si>
@@ -202,9 +178,6 @@
     <t>412327</t>
   </si>
   <si>
-    <t>Marcia L. Fudge</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Fudge. Thank you so much, Mr. Chairman. Thank you all for being here today. Ms. Merriweather, my sincere congratulations to you for the work you have done. I represent tens of thousands of children just like you, and certainly hope they have the same opportunity that you had. Congratulations to you.    I am an advocate, as many of you are, for the proposition that all children have access to a quality education. I just wish that my colleagues would fight as much for those with no choice as they do for those who have a choice.    Mr. Bryan, you indicate that the opportunity scholarships improve student outcomes. If this is the case, please explain to me why there is such resistance from private schools to report out data on yearly student performance and on their school and class demographics, just as public schools must.</t>
   </si>
   <si>
@@ -250,9 +223,6 @@
     <t>412310</t>
   </si>
   <si>
-    <t>David P. Roe</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Roe. Thank you, Chairman. Full disclosure, there are no charter schools in my district. Mr. Robinson, you started out by saying that families make a choice when they move, and you are absolutely right. I remember when I moved my family to Johnson City, Tennessee. I looked for the best public school there was because I had gone to public schools my entire life. I wanted my children to go to good public schools, but I could that because I had the resources to buy a house in that neighborhood.    Ms. Merriweather, whose story was unbelievable and an incredible story, did not have that choice. Fortunately, because someone took an interest and saw real talent in that young woman and invested time in her, she is going to be an advocate for other people. That is one of the most compelling stories I have heard, and a big shout out to you for that.    I do have full disclosure. I do have one son, and all my children went to public schools, but I have one son, with a heavy heart, I have to tell you, has a graduate degree from Vanderbilt. I am very sad about that being a UT graduate.    The point is an education is your ticket out. It is the only chance you have. What I cannot understand, if you are going to a failing school, why anybody would want to keep a child in that school. Why would you let them try if you are failing, why would you not let that child, whatever you have to do, because they only have one chance, and I can tell you, a parent does not give a hoot about meta-analysis or anything else, what they care about is they want their child safe and they want their child learning, and parents know that. They know when they go to a school--a school has a reputation just like a doctor or lawyer or anything else, and we know where kids go and learn.    Look, I do not know the answer to all this, but I do know the answer is not keeping a kid in a school that is not working for them.    I would like to ask any of you to answer this. What is the role or does the Federal Government have any role in this part of public education, a voucher system? Mr. Robinson, I will start with you. What role do you see for the government? Expand it, shrink it, what is it?</t>
   </si>
   <si>
@@ -280,9 +250,6 @@
     <t>412585</t>
   </si>
   <si>
-    <t>Mark Pocan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pocan. Thank you, Mr. Chairman. I also want to thank you for holding this hearing. Let me just add to the echo, Ms. Merriweather, congratulations and thank you for sharing your story. I think your story is what makes a teacher proud they chose the profession they chose, and it is a testament to what good teachers and small class sizes can do, so thank you for sharing that.    However, unlike Mr. Messer, I think I have a little different experience when it comes to taxpayer funded voucher programs. I spent 14 years in the Wisconsin legislature. I was not around for the creation of the program, but I was around for 14 years of the growth of the program.    Let me just kind of share my perspective of how things worked in Wisconsin. When we first started the program, we had money going to schools where the person who ran the school said he could put his hand on a book and read it. We had money going to schools where they bought Cadillacs with the money for administrators for the program.    From there, some accountability standards came in, but as Ms. Fudge brought out, there is still a problem with accountability and records.    I went to South Division High School in Milwaukee, a public school, with a low graduation rate of about 50 percent, but when a student came from one of these taxpayer funded voucher schools, there there was absolutely no records that came with them, so you were starting with a blank slate, so while there may be freedom for that school, there is no accountability or anything for the student who is trying to go to that high school and how to place that person. That is part of the records that we had.    When I look at the Wisconsin experience, those schools can select their students. We had a real controversy especially with students with disabilities. The American Legislative Exchange Council, which is a corporate bill mill that puts out all these different bills, had a special needs scholarship bill--- sounds just like what North Carolina passed - every disability group in the state opposed it because they know what is going to happen: more dollars will leave the public school system and go to private schools, and only a few children will benefit from that, but in general, the public schools are going to be left with some of the tougher kids, which costs more for the system, and ultimately that hurts public education even more.    They lacked the accountability that I mentioned. We had schools shut down. In Wisconsin alone, we had schools shut down literally overnight that took taxpayer money, and that cost to the taxpayers was about $176 million in the State of Wisconsin. That is the experience that we had.    Ultimately, it diverted resources from our public school system, and it is the government's responsibility to make sure children have access to that opportunity of education.    That was our experience. And then, I remember when Governor Pence came before this committee and I asked him about the rollout in Indiana. I think he said somewhere between 40 and 50 percent of the kids who came into the program already attended a private school.    In Wisconsin, the last expansion we had, 79 percent of the people already attended a private school who went into that program.    That is not so much about education policy, that is really kind of like a tax policy. I guess my question to Dr. Huerta especially, my experience that I am offering from my state, how different, are we the anomaly compared to these other states' experiences, and can you just tell me how that helps public education?</t>
   </si>
   <si>
@@ -298,9 +265,6 @@
     <t>412278</t>
   </si>
   <si>
-    <t>Brett Guthrie</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Guthrie. Thank you, Mr. Chairman. Thank you, Ms. Merriweather. Again, I will echo. I think you said you were a South Florida student. Western Kentucky University is in my district or my home town. We got to play in a bowl game. I say that because you hired our coach away from us, beloved Willie Taggart. I hope you have a chance to meet him or his wife because they are fantastic people and class act, and wish him the best, and thanks for coming here today.    You said this opportunity kept you from being a statistic, and it seems as we are listening to this now, you are a statistic because we are talking about 79 percent this, 81 percent that. What we are seeing is lives that change.    I think there was one study, I think, that was quoted that said did not show gains but the worse other than that was on average there are no gains. It gave you an opportunity to find the school that fit for you. I think those are things we have to recognize.    You said also that the voucher or the tax credit did not completely cover your tuition, but it made it affordable for your godmother to be able to make that choice for you. I think a lot of things that we are hearing negative towards choice and use of public funds for giving people other educational opportunities, you seem to be debunking because it seems to fit your life and you are in a graduate program, so we really appreciate you being here and sharing your story because it is important for us to hear.    I worked in the state legislature as well, Mr. Bryan. Thanks for your work. The education area is where I worked. My kids went to public schools. I have one that is a senior in high school, had fantastic opportunities. I think somebody said 95 percent of schools are successful. I do not know what the number is, but a vast number of Kentucky schools are extremely successful.    I will tell you there are some schools that I got to visit that weren't, and I really tried to do a recovery program for schools in distress. We could not do charters or vouchers. That just was not going to happen politically in Kentucky at the time. I think the time is coming.    We were able to do substantial things through bipartisan, and one of my biggest partners in trying to get it through the House was the different Majority than mine, the Urban League. The leader of the Urban League in Lexington saw the schools that typically were inner-city schools, although we have rural schools that have issues and failure.    Now, I think maybe the time has come in Kentucky. We have a new Governor, closely aligned legislature that might move forward on charter schools.    The question--I think there are fair points that were brought up, how do you ensure that private schools do not cherry pick students, how do you ensure that--I agree with Ms. Fudge, we want to make sure that every tax dollar is accountable.    Mr. Robinson, I guess I am just asking you, Kentucky is looking at our charter schools, and when we talk to Governor Bevin or his new Secretary Heiner, what states prevent some of the problems you are talking about and what states do it right, and what should we look at moving forward? We are talking about charter schools and vouchers as we speak.</t>
   </si>
   <si>
@@ -334,9 +298,6 @@
     <t>412561</t>
   </si>
   <si>
-    <t>Hakeem S. Jeffries</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Jeffries. Thank you, Mr. Chair. I thank the witnesses for their presence here today.    Dr. Huerta, how does the percentage of private school students who are English language learners compare to the percentage of public school students?</t>
   </si>
   <si>
@@ -418,9 +379,6 @@
     <t>412426</t>
   </si>
   <si>
-    <t>Todd Rokita</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rokita. I thank the chairman for the hearing. I thank the witnesses for their time. I want to first go to Mr. Robinson just to see if he wants to continue with his answer that Mr. Jeffries questioned him about, if you have any more to add to that. Time ran out.</t>
   </si>
   <si>
@@ -460,9 +418,6 @@
     <t>412600</t>
   </si>
   <si>
-    <t>Katherine M. Clark</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Clark. Thank you, Mr. Chairman. Thank you to all of the panelists who are with us today. I could not agree more than with the gentleman from Indiana when he said that this is the civil rights issue of our time, access to quality education for every single student, no matter what their income, no matter what their zip code is.    Ms. Merriweather, you have an inspiring story that fits right into that narrative of how do we provide that for every single child in this country. It seems like sometimes we get focused on choice is a way to get us to that goal, but choice is not the goal itself.    Representative Bryan, I was looking at some numbers from North Carolina, and these are rough numbers, but there approximately 120,000 students served in private schools, about 60,000 more in charter schools in North Carolina, and you have approximately 1.5 million school age students, children in North Carolina.    How when you were looking at designing your choice programs--did you look at how we build a system? Obviously, you do not have the capacity or anywhere close to serve the majority of children, so how did you look at designing a system that would actually help every child get that opportunity?</t>
   </si>
   <si>
@@ -526,9 +481,6 @@
     <t>412622</t>
   </si>
   <si>
-    <t>Earl L. "Buddy" Carter</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Carter. Thank you, Mr. Chairman, and thank all of you for being here. Ms. Merriweather, you are a beam of sunshine in our day today. Thank you for being here and thank you for your story. You know it is a honor for us to serve as representatives of the people, but like anything else, sometimes it can be a grind, and sometimes we wonder if we are making a difference, but it is stories like yours that keep us going. Thank you.    I want to ask you, do you know of any other stories similar to yours? Have there been other people, friends of yours, that you have known? You put it so well. I have always said poverty breeds poverty, and we have to break that cycle, and you said that, that cycle has been broken. Do you know of any other examples?</t>
   </si>
   <si>
@@ -565,9 +517,6 @@
     <t>412501</t>
   </si>
   <si>
-    <t>Suzanne Bonamici</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Bonamici. Thank you, Mr. Chairman. It has been an interesting discussion this morning. I want to start by following up on an earlier comment. Representative Bryan mentioned Pell Grants as if they were analogous to vouchers, but we have not as a country made access to higher education a universal right like we have with K-12 education. If we do, then it will be a sound analogy, but without that, we are talking apples and oranges.    It has been just a couple of months since our committee helped pass the Every Student Succeeds Act, which was a historic achievement, upholding the civil rights legacy of the original Elementary and Secondary Education Act.    That legacy was really part of a sustained commitment to deliver support to underserved public schools so every student in every community has access to a high-quality education.    Ms. Merriweather, your story is very inspiring. In fact, it inspires me to work even harder to make sure that every student in every school has caring teachers and small classes and high expectations.    I am concerned that today we are discussing the possibility of diverting taxpayer dollars from public schools to give students resources to attend private schools, which frequently are not held accountable to serving all students.    It is also unfortunate that school privatization efforts also tend to be based on the premise that our public schools are failing. That term keeps coming up, ``failing schools.'' Of course, we could do more to strengthen public education for all students, and there are students who struggle more than others in our schools.    We made significant progress with the Every Student Succeeds Act, but let's look at what our schools are doing well, especially when we consider resource challenges and the expectations that we rightly put on our public schools to serve every student, regardless of socioeconomic background, ability, or special needs. Today, drop-out rates are declining, more students are being challenged in advanced courses, and achievement gaps are narrowing.    We as policy makers have a responsibility to ensure an excellent education for all students in our country, and we should continue to work on policies that are consistent with that commitment.    In my district, Beaverton, Oregon is a school district that has several public school options in addition to comprehensive high schools. For example, there is an international school and a science and technology school, arts, and a health careers option, without diverting dollars to private schools. I firmly believe in that kind of choice within the public school system.    Dr. Huerta, I want to follow up on the consequences of school privatization efforts for students with disabilities. There was just an article in the Oregonian Newspaper in my state about Joey. Joey was attending a Catholic school in Portland, and he has Down Syndrome. He had some behavioral issues at school like many students do. His parents are dedicated to their parish, and they were actually paying about $2,000 a month for extra classroom assistance, but the school where Joey's three siblings attended and where his friends are, asked Joey to leave.    Your testimony mentions cost differentials and recognizes that delivering high-quality services to students with disabilities requires an investment of resources. So can you discuss how voucher programs relate to students like Joey and his circumstances? Do they generally offer sufficient resources to permit students like Joey to attend parochial and other private schools?</t>
   </si>
   <si>
@@ -589,9 +538,6 @@
     <t>412446</t>
   </si>
   <si>
-    <t>Joseph J. Heck</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Heck. Thank you, Mr. Chairman. Ms. Merriweather, like my colleagues, I also want to applaud you for appearing here today and sharing your very inspirational story. I can tell you for the five years I have been on this committee, that is the most moving testimony I have heard, so thank you for being here.    My state, Nevada, just passed education savings account legislation last year in 2015, and it was just rolled out just this last month in January. In that legislation, 96 percent of the students statewide would be eligible, special needs and families with incomes up to 100 percent of the free and reduced lunch program standard would be able to receive 100 percent of the basic support for pupils, others would be eligible to get 90 percent of that basic support, tuition, home schooling, tutoring, educational materials and so on.    In a recent poll, 61 percent of those parents in Nevada said they support that program, 21 percent were opposed. Of the 61 percent that were pro, 60 percent were union households, 71 percent were Hispanic households.    The program has been called the first universal ESSA program nationwide by the Friedman Foundation, and in supporting the program, our Governor, Brian Sandoval, stated he believes fixing Nevada's perpetually underperforming education system must include more resources for public schools, and he and our legislature actually increased public school funding in the last session, and quote ``As well as robust options for school choice.'' End quote.    Even with that overwhelming support, as we expected, a court case has been filed challenging the new program.    Mr. Robinson, in your written testimony, you offer several suggestions for congressional action, and you mentioned the possibility of a Government Accountability Office study about how federal funding rules prevent states, and you specifically mentioned Nevada, from using federal education funding to support the SEAs.    Do you have an opinion on how those federal rules could hamper those efforts?</t>
   </si>
   <si>
@@ -613,9 +559,6 @@
     <t>412308</t>
   </si>
   <si>
-    <t>Jared Polis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Polis. Thank you, Mr. Chairman. I appreciate the committee highlighting School Choice Week, and of course, we are doing it a week late, but you know, it is never too late to celebrate school choice, and we should celebrate school choice all 52 weeks of the year. I want to thank our witnesses for coming before us today.    My home State of Colorado has a number of mechanisms to allow parents to choose schools. We have open enrollment within districts. We have open enrollment between districts. We not only allow districts to charter schools, we have a state chartering network.    The history of incorporating privately run schools into the school choice network has been legally troubled in Colorado. The first attempt in recent history was in 2003 through an opportunity contract program, which effectively required some of the low performing districts to reach out to private providers within their jurisdiction and create contracts to provide for education.    This was struck down by our State Supreme Court on local control grounds. We have local control incorporated into our governing document and in our constitution.    The more recent attempt was at the local level where one of our large suburban school districts, Douglas County, elected a school board that chose to pursue a voucher-like program, and again, while they implemented that for a year, it was struck down by the Supreme Court on very different grounds, namely using state money to fund religious schools. We are one of the states with language in our state's constitution that prohibits that or not.    The status of the voucher program with regard to secular schools remains in question. There were six secular schools in the initial roll out from Douglas County.    My question for Mr. Robinson is given that legal framework we have had in Colorado, the most effective way that we have seen on the ground to incorporate private providers into the public education network has been through contract education.    I see that is not one of the areas you have highlighted. You have highlighted tax credits and vouchers. I wonder if you have any thoughts on contract education, namely making school districts that choose to contract with private providers, and I will give you an example, we have had for well over a decade Denver Public Schools, one of the largest school districts in our state, fluctuates between first and second, contracted with a private provider called Escuela Tlalelolco, a predominately Latino school, and effectively compensated them for the students that were enrolled there.    What are your thoughts on contract education and is that something you might be able to incorporate into your global look at school choice?</t>
   </si>
   <si>
@@ -664,9 +607,6 @@
     <t>400179</t>
   </si>
   <si>
-    <t>Rubén Hinojosa</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hinojosa. Thank you, Chairman Kline and Ranking Member Scott for today's hearing, giving us an opportunity to focus on the improvement of educational opportunities for all students in every public school.    Mr. Chairman, I ask unanimous consent that my brief opening statement be made part of this hearing.</t>
   </si>
   <si>
@@ -703,9 +643,6 @@
     <t>412625</t>
   </si>
   <si>
-    <t>Rick W. Allen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Allen. Yes Sir Thank you, Mr. Chairman, and thank you to the panel for being here today and your testimony on this important subject. Obviously, I think the American people have spoken, and they want choice, and they do want accountability. I think each one of you demonstrated that as well.    Ms. Merriweather, I have had an occasion to visit some universities and some schools in the district. Frankly, in talking with the administration at one of the major universities, I was shocked to learn, I said what is your biggest challenge, and they said the emotional health of our students.    Of course, I remember back on my college days. Those were some of the best days of my life, toughest days, but was a great time in my life.    I was more shocked to go into a fairly wealthy area of the district and talk to an elementary school, and I'm sitting there with the administration, and I said what is your biggest challenge, and they said it is the emotional health of our students.    Now, obviously, there was a time in your life where you were in a bad place. I mean you were dealing with things that I think is unfair for a young person to have to deal with, to be honest with you. I am just totally amazed to hear your courageous and heroic story.    What was it that turned you around? What I told these folks at the elementary school is I said we have to address the mind, the body, and the spirit, the three aspects of the student. What is it that turned your life around?</t>
   </si>
   <si>
@@ -727,9 +664,6 @@
     <t>412607</t>
   </si>
   <si>
-    <t>Alma S. Adams</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Adams. Thank you, Chairman Kline and Ranking Member Scott. I want to thank the witnesses for testifying. I had another meeting that overlapped. I did have a chance to read your testimony.    Education has been a long passion of mine, especially as it relates to low income students who are often students of color, and I am one of those, graduated from high school, public high school in Newark, New Jersey, grew up in the ghetto. I taught for 40 years as an educator in Greensboro, North Carolina.    I also served in the North Carolina House for 20.5 years, and I did not get a chance to serve with you, Representative Bryan, but while I was there, I was opposed to efforts to funnel our public dollars to voucher programs, and I am still opposed to that today. I do not think that was a good idea.    However, despite the strong efforts, we were left in North Carolina with an opportunity scholarship program, and I think there are still opportunities that are not there for all of our children. Representative Bryan, I know you are a strong proponent of the program, but I have to let my colleagues who are left here know it is not as good as it sounds.    The program was initially struck down as unconstitutional, rightly asserted that the General Assembly was seeking to push average students from low-income families into non-public schools in order to avoid the cost of providing them a sound basic education in public schools.    I just know a greater percentage, 90 percent of our children, will be educated in public schools. Unfortunately, the State Supreme Court overturned this ruling on ideological lines, and to add insult to injury, Chief Justice Marshall or Martin said that those taxpayers who allege that the program failed, failed to show that they suffered harm.    I really find it hard to believe that taking limited funds that the North Carolina legislature chose to cut from public dollars and sending those to private schools that are not held to the same level of accountability is not harmful, it is harmful.    Dr. Huerta, I have a question for you, if you would expound upon some of the harmful outcomes of voucher programs in other states, and offer some insight on what you think North Carolina can expect for low-income students.</t>
   </si>
   <si>
@@ -761,9 +695,6 @@
   </si>
   <si>
     <t>412648</t>
-  </si>
-  <si>
-    <t>Elise M. Stefanik</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Stefanik. Thank you, Mr. Chairman.    Ms. Merriweather, I want to echo my colleagues' sentiment. Your testimony today was truly inspiring, and the courage and confidence that it takes to testify as a young person before Congress, I commend you for that. I also commend you for your advocacy in ensuring that everyone who is listening to this hearing today understands that achieving a high quality education can truly change your life. Thank you for sharing that empowered story.    I wanted to ask you a question. You talked about small class size, additional teacher help, whether it was with your times tables or your reading comprehension, educating you as a whole person beyond just academic rigor.    Can you give a little bit more detail on what it was like transitioning from your first experience in school to the private school that you attended, and what some of those difference were?</t>
@@ -1192,11 +1123,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1216,13 +1145,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1244,11 +1171,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1268,13 +1193,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1296,11 +1219,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1322,11 +1243,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1346,13 +1265,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1374,11 +1291,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1398,13 +1313,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
         <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1426,11 +1339,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1450,13 +1361,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1478,11 +1387,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1502,13 +1409,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1530,11 +1435,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1554,13 +1457,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" t="s">
-        <v>37</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1580,13 +1481,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1606,13 +1505,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" t="s">
-        <v>37</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1634,11 +1531,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1658,13 +1553,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1686,11 +1579,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1710,13 +1601,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1736,13 +1625,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1762,13 +1649,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1788,13 +1673,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1814,13 +1697,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1840,13 +1721,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1866,13 +1745,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1892,13 +1769,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1920,11 +1795,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1944,13 +1817,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1970,13 +1841,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1996,13 +1865,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2022,13 +1889,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>23</v>
-      </c>
-      <c r="G34" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2048,13 +1913,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2074,13 +1937,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2100,13 +1961,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2128,11 +1987,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2152,13 +2009,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>61</v>
-      </c>
-      <c r="G39" t="s">
-        <v>62</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2178,13 +2033,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>23</v>
-      </c>
-      <c r="G40" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2204,13 +2057,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>61</v>
-      </c>
-      <c r="G41" t="s">
-        <v>62</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2230,13 +2081,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>23</v>
-      </c>
-      <c r="G42" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2256,13 +2105,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>61</v>
-      </c>
-      <c r="G43" t="s">
-        <v>62</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2282,13 +2129,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>23</v>
-      </c>
-      <c r="G44" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2308,13 +2153,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>61</v>
-      </c>
-      <c r="G45" t="s">
-        <v>62</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2334,13 +2177,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>23</v>
-      </c>
-      <c r="G46" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2360,13 +2201,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>61</v>
-      </c>
-      <c r="G47" t="s">
+        <v>53</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
         <v>62</v>
-      </c>
-      <c r="H47" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2386,13 +2225,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>23</v>
-      </c>
-      <c r="G48" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2412,13 +2249,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>61</v>
-      </c>
-      <c r="G49" t="s">
-        <v>62</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2438,13 +2273,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>23</v>
-      </c>
-      <c r="G50" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2464,13 +2297,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>61</v>
-      </c>
-      <c r="G51" t="s">
-        <v>62</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2492,11 +2323,9 @@
       <c r="F52" t="s">
         <v>11</v>
       </c>
-      <c r="G52" t="s">
-        <v>12</v>
-      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2516,13 +2345,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>77</v>
-      </c>
-      <c r="G53" t="s">
-        <v>78</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2542,13 +2369,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>23</v>
-      </c>
-      <c r="G54" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2568,13 +2393,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>77</v>
-      </c>
-      <c r="G55" t="s">
-        <v>78</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2594,13 +2417,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>23</v>
-      </c>
-      <c r="G56" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2620,13 +2441,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>77</v>
-      </c>
-      <c r="G57" t="s">
-        <v>78</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2646,13 +2465,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>23</v>
-      </c>
-      <c r="G58" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2672,13 +2489,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>77</v>
-      </c>
-      <c r="G59" t="s">
-        <v>78</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2700,11 +2515,9 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" t="s">
-        <v>12</v>
-      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2724,13 +2537,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>87</v>
-      </c>
-      <c r="G61" t="s">
-        <v>88</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2750,13 +2561,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>23</v>
-      </c>
-      <c r="G62" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2776,13 +2585,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>87</v>
-      </c>
-      <c r="G63" t="s">
-        <v>88</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2804,11 +2611,9 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" t="s">
-        <v>12</v>
-      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2828,13 +2633,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>93</v>
-      </c>
-      <c r="G65" t="s">
-        <v>94</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2854,13 +2657,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>23</v>
-      </c>
-      <c r="G66" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2880,13 +2681,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>93</v>
-      </c>
-      <c r="G67" t="s">
-        <v>94</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2906,13 +2705,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>23</v>
-      </c>
-      <c r="G68" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2932,13 +2729,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>93</v>
-      </c>
-      <c r="G69" t="s">
-        <v>94</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2958,13 +2753,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>23</v>
-      </c>
-      <c r="G70" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2984,13 +2777,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>93</v>
-      </c>
-      <c r="G71" t="s">
-        <v>94</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3010,13 +2801,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>23</v>
-      </c>
-      <c r="G72" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3036,13 +2825,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>93</v>
-      </c>
-      <c r="G73" t="s">
-        <v>94</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3064,11 +2851,9 @@
       <c r="F74" t="s">
         <v>11</v>
       </c>
-      <c r="G74" t="s">
-        <v>12</v>
-      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3088,13 +2873,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>105</v>
-      </c>
-      <c r="G75" t="s">
-        <v>106</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3114,13 +2897,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>23</v>
-      </c>
-      <c r="G76" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3140,13 +2921,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>105</v>
-      </c>
-      <c r="G77" t="s">
-        <v>106</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3166,13 +2945,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>23</v>
-      </c>
-      <c r="G78" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3192,13 +2969,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>105</v>
-      </c>
-      <c r="G79" t="s">
-        <v>106</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3218,13 +2993,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>23</v>
-      </c>
-      <c r="G80" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3244,13 +3017,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>105</v>
-      </c>
-      <c r="G81" t="s">
-        <v>106</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3270,13 +3041,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>23</v>
-      </c>
-      <c r="G82" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3296,13 +3065,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>105</v>
-      </c>
-      <c r="G83" t="s">
-        <v>106</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3322,13 +3089,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>23</v>
-      </c>
-      <c r="G84" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3348,13 +3113,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>105</v>
-      </c>
-      <c r="G85" t="s">
-        <v>106</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3374,13 +3137,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>23</v>
-      </c>
-      <c r="G86" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3400,13 +3161,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>105</v>
-      </c>
-      <c r="G87" t="s">
+        <v>93</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
         <v>106</v>
-      </c>
-      <c r="H87" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3426,13 +3185,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>23</v>
-      </c>
-      <c r="G88" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3452,13 +3209,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>105</v>
-      </c>
-      <c r="G89" t="s">
-        <v>106</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3478,13 +3233,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>23</v>
-      </c>
-      <c r="G90" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3504,13 +3257,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>105</v>
-      </c>
-      <c r="G91" t="s">
-        <v>106</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3530,13 +3281,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>23</v>
-      </c>
-      <c r="G92" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3556,13 +3305,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>105</v>
-      </c>
-      <c r="G93" t="s">
-        <v>106</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3582,13 +3329,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>23</v>
-      </c>
-      <c r="G94" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3608,13 +3353,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>105</v>
-      </c>
-      <c r="G95" t="s">
-        <v>106</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3634,13 +3377,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>23</v>
-      </c>
-      <c r="G96" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3660,13 +3401,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>105</v>
-      </c>
-      <c r="G97" t="s">
-        <v>106</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3686,13 +3425,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>23</v>
-      </c>
-      <c r="G98" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3712,13 +3449,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>105</v>
-      </c>
-      <c r="G99" t="s">
-        <v>106</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3740,11 +3475,9 @@
       <c r="F100" t="s">
         <v>11</v>
       </c>
-      <c r="G100" t="s">
-        <v>12</v>
-      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3764,13 +3497,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>133</v>
-      </c>
-      <c r="G101" t="s">
-        <v>134</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3790,13 +3521,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>23</v>
-      </c>
-      <c r="G102" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3816,13 +3545,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>133</v>
-      </c>
-      <c r="G103" t="s">
-        <v>134</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3842,13 +3569,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>23</v>
-      </c>
-      <c r="G104" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3868,13 +3593,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>133</v>
-      </c>
-      <c r="G105" t="s">
-        <v>134</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3894,13 +3617,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>23</v>
-      </c>
-      <c r="G106" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3920,13 +3641,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>133</v>
-      </c>
-      <c r="G107" t="s">
-        <v>134</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3946,13 +3665,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>23</v>
-      </c>
-      <c r="G108" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3972,13 +3689,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>133</v>
-      </c>
-      <c r="G109" t="s">
-        <v>134</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3998,13 +3713,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>23</v>
-      </c>
-      <c r="G110" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4024,13 +3737,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>133</v>
-      </c>
-      <c r="G111" t="s">
-        <v>134</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4052,11 +3763,9 @@
       <c r="F112" t="s">
         <v>11</v>
       </c>
-      <c r="G112" t="s">
-        <v>12</v>
-      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4076,13 +3785,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>147</v>
-      </c>
-      <c r="G113" t="s">
-        <v>148</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4102,13 +3809,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>23</v>
-      </c>
-      <c r="G114" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4128,13 +3833,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>147</v>
-      </c>
-      <c r="G115" t="s">
-        <v>148</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4154,13 +3857,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>23</v>
-      </c>
-      <c r="G116" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4180,13 +3881,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>147</v>
-      </c>
-      <c r="G117" t="s">
-        <v>148</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4206,13 +3905,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>23</v>
-      </c>
-      <c r="G118" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4232,13 +3929,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>147</v>
-      </c>
-      <c r="G119" t="s">
-        <v>148</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4258,13 +3953,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>23</v>
-      </c>
-      <c r="G120" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4284,13 +3977,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>147</v>
-      </c>
-      <c r="G121" t="s">
-        <v>148</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4310,13 +4001,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>23</v>
-      </c>
-      <c r="G122" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4336,13 +4025,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>147</v>
-      </c>
-      <c r="G123" t="s">
-        <v>148</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4362,13 +4049,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>23</v>
-      </c>
-      <c r="G124" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4388,13 +4073,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>147</v>
-      </c>
-      <c r="G125" t="s">
-        <v>148</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4414,13 +4097,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>23</v>
-      </c>
-      <c r="G126" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4440,13 +4121,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>147</v>
-      </c>
-      <c r="G127" t="s">
+        <v>133</v>
+      </c>
+      <c r="G127" t="s"/>
+      <c r="H127" t="s">
         <v>148</v>
-      </c>
-      <c r="H127" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4466,13 +4145,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>23</v>
-      </c>
-      <c r="G128" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4492,13 +4169,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>147</v>
-      </c>
-      <c r="G129" t="s">
-        <v>148</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4518,13 +4193,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>23</v>
-      </c>
-      <c r="G130" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4544,13 +4217,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>147</v>
-      </c>
-      <c r="G131" t="s">
-        <v>148</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4572,11 +4243,9 @@
       <c r="F132" t="s">
         <v>11</v>
       </c>
-      <c r="G132" t="s">
-        <v>12</v>
-      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4596,13 +4265,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>169</v>
-      </c>
-      <c r="G133" t="s">
-        <v>170</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4622,13 +4289,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>23</v>
-      </c>
-      <c r="G134" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4648,13 +4313,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>169</v>
-      </c>
-      <c r="G135" t="s">
-        <v>170</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4674,13 +4337,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>23</v>
-      </c>
-      <c r="G136" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4700,13 +4361,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>169</v>
-      </c>
-      <c r="G137" t="s">
-        <v>170</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4726,13 +4385,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>23</v>
-      </c>
-      <c r="G138" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4752,13 +4409,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>169</v>
-      </c>
-      <c r="G139" t="s">
-        <v>170</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4778,13 +4433,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>23</v>
-      </c>
-      <c r="G140" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4804,13 +4457,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>169</v>
-      </c>
-      <c r="G141" t="s">
-        <v>170</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4830,13 +4481,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>23</v>
-      </c>
-      <c r="G142" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4856,13 +4505,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>169</v>
-      </c>
-      <c r="G143" t="s">
-        <v>170</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4884,11 +4531,9 @@
       <c r="F144" t="s">
         <v>11</v>
       </c>
-      <c r="G144" t="s">
-        <v>12</v>
-      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4908,13 +4553,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>182</v>
-      </c>
-      <c r="G145" t="s">
-        <v>183</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4934,13 +4577,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>23</v>
-      </c>
-      <c r="G146" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4960,13 +4601,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>182</v>
-      </c>
-      <c r="G147" t="s">
-        <v>183</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4986,13 +4625,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>23</v>
-      </c>
-      <c r="G148" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5012,13 +4649,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>182</v>
-      </c>
-      <c r="G149" t="s">
-        <v>183</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5040,11 +4675,9 @@
       <c r="F150" t="s">
         <v>11</v>
       </c>
-      <c r="G150" t="s">
-        <v>12</v>
-      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5064,13 +4697,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>190</v>
-      </c>
-      <c r="G151" t="s">
-        <v>191</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5090,13 +4721,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>23</v>
-      </c>
-      <c r="G152" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5116,13 +4745,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>190</v>
-      </c>
-      <c r="G153" t="s">
-        <v>191</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5142,13 +4769,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>23</v>
-      </c>
-      <c r="G154" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5168,13 +4793,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>190</v>
-      </c>
-      <c r="G155" t="s">
-        <v>191</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5196,11 +4819,9 @@
       <c r="F156" t="s">
         <v>11</v>
       </c>
-      <c r="G156" t="s">
-        <v>12</v>
-      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5220,13 +4841,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>198</v>
-      </c>
-      <c r="G157" t="s">
-        <v>199</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5246,13 +4865,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>23</v>
-      </c>
-      <c r="G158" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5272,13 +4889,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>198</v>
-      </c>
-      <c r="G159" t="s">
-        <v>199</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5298,13 +4913,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>23</v>
-      </c>
-      <c r="G160" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5324,13 +4937,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>198</v>
-      </c>
-      <c r="G161" t="s">
-        <v>199</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5350,13 +4961,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>23</v>
-      </c>
-      <c r="G162" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5376,13 +4985,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>198</v>
-      </c>
-      <c r="G163" t="s">
-        <v>199</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5402,13 +5009,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>23</v>
-      </c>
-      <c r="G164" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5428,13 +5033,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>198</v>
-      </c>
-      <c r="G165" t="s">
-        <v>199</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5456,11 +5059,9 @@
       <c r="F166" t="s">
         <v>11</v>
       </c>
-      <c r="G166" t="s">
-        <v>12</v>
-      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5480,13 +5081,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>36</v>
-      </c>
-      <c r="G167" t="s">
-        <v>37</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5506,13 +5105,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>23</v>
-      </c>
-      <c r="G168" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5532,13 +5129,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>36</v>
-      </c>
-      <c r="G169" t="s">
-        <v>37</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5558,13 +5153,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>23</v>
-      </c>
-      <c r="G170" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5584,13 +5177,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>36</v>
-      </c>
-      <c r="G171" t="s">
-        <v>37</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5612,11 +5203,9 @@
       <c r="F172" t="s">
         <v>11</v>
       </c>
-      <c r="G172" t="s">
-        <v>12</v>
-      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5636,13 +5225,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>215</v>
-      </c>
-      <c r="G173" t="s">
-        <v>216</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5664,11 +5251,9 @@
       <c r="F174" t="s">
         <v>11</v>
       </c>
-      <c r="G174" t="s">
-        <v>12</v>
-      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5688,13 +5273,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>215</v>
-      </c>
-      <c r="G175" t="s">
-        <v>216</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5714,13 +5297,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>23</v>
-      </c>
-      <c r="G176" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5740,13 +5321,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>215</v>
-      </c>
-      <c r="G177" t="s">
-        <v>216</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5766,13 +5345,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>23</v>
-      </c>
-      <c r="G178" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5792,13 +5369,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>215</v>
-      </c>
-      <c r="G179" t="s">
-        <v>216</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5818,13 +5393,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>23</v>
-      </c>
-      <c r="G180" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5844,13 +5417,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>215</v>
-      </c>
-      <c r="G181" t="s">
-        <v>216</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5872,11 +5443,9 @@
       <c r="F182" t="s">
         <v>11</v>
       </c>
-      <c r="G182" t="s">
-        <v>12</v>
-      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5896,13 +5465,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>215</v>
-      </c>
-      <c r="G183" t="s">
-        <v>216</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5924,11 +5491,9 @@
       <c r="F184" t="s">
         <v>11</v>
       </c>
-      <c r="G184" t="s">
-        <v>12</v>
-      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5948,13 +5513,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>228</v>
-      </c>
-      <c r="G185" t="s">
-        <v>229</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5974,13 +5537,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>23</v>
-      </c>
-      <c r="G186" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6000,13 +5561,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>228</v>
-      </c>
-      <c r="G187" t="s">
-        <v>229</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6026,13 +5585,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>23</v>
-      </c>
-      <c r="G188" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6052,13 +5609,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>228</v>
-      </c>
-      <c r="G189" t="s">
-        <v>229</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6080,11 +5635,9 @@
       <c r="F190" t="s">
         <v>11</v>
       </c>
-      <c r="G190" t="s">
-        <v>12</v>
-      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6104,13 +5657,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>236</v>
-      </c>
-      <c r="G191" t="s">
-        <v>237</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6130,13 +5681,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>23</v>
-      </c>
-      <c r="G192" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6156,13 +5705,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>236</v>
-      </c>
-      <c r="G193" t="s">
-        <v>237</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6182,13 +5729,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>23</v>
-      </c>
-      <c r="G194" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6208,13 +5753,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>236</v>
-      </c>
-      <c r="G195" t="s">
-        <v>237</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6234,13 +5777,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>23</v>
-      </c>
-      <c r="G196" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6260,13 +5801,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>236</v>
-      </c>
-      <c r="G197" t="s">
-        <v>237</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6288,11 +5827,9 @@
       <c r="F198" t="s">
         <v>11</v>
       </c>
-      <c r="G198" t="s">
-        <v>12</v>
-      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6312,13 +5849,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>236</v>
-      </c>
-      <c r="G199" t="s">
-        <v>237</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6340,11 +5875,9 @@
       <c r="F200" t="s">
         <v>11</v>
       </c>
-      <c r="G200" t="s">
-        <v>12</v>
-      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6364,13 +5897,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>248</v>
-      </c>
-      <c r="G201" t="s">
-        <v>249</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6390,13 +5921,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>23</v>
-      </c>
-      <c r="G202" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6416,13 +5945,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>248</v>
-      </c>
-      <c r="G203" t="s">
-        <v>249</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6442,13 +5969,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>23</v>
-      </c>
-      <c r="G204" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6468,13 +5993,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>248</v>
-      </c>
-      <c r="G205" t="s">
-        <v>249</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6494,13 +6017,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>23</v>
-      </c>
-      <c r="G206" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6520,13 +6041,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>248</v>
-      </c>
-      <c r="G207" t="s">
-        <v>249</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6548,11 +6067,9 @@
       <c r="F208" t="s">
         <v>11</v>
       </c>
-      <c r="G208" t="s">
-        <v>12</v>
-      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6572,13 +6089,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>215</v>
-      </c>
-      <c r="G209" t="s">
-        <v>216</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6600,11 +6115,9 @@
       <c r="F210" t="s">
         <v>11</v>
       </c>
-      <c r="G210" t="s">
-        <v>12</v>
-      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98416.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98416.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="280">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400224</t>
   </si>
   <si>
+    <t>Kline</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Kline. A quorum being present, the Committee on Education and the Workforce will come to order. Good morning, everyone, welcome to today's hearing. I want to thank our witnesses for joining us as we discuss ways to expand educational opportunity through school choice.    This committee's work to improve K-12 education has always been guided by the belief that every child regardless of where they come from or how much money their parents make should receive an excellent education.    Unfortunately, some schools are failing to provide students that opportunity. Too many of our nation's students are entering high school without the critical skills they need to complete their education, and too many graduates are going off to college or entering the workforce without the tools they need to succeed in life.    Everyone here agrees our children deserve better. They deserve the opportunity to receive a better education and pursue a better life. That is why improving K-12 education continues to be such an important priority at the federal, state, and local levels.    By empowering parents to do what is best for their child, school choice has been an instrumental part of that effort.    When we passed legislation last year to improve K-12 education, empowering parents was one of our primary goals because we know parents can make the most meaningful difference in their child's education.    Several reforms in the Every Student Succeeds Act help parents do what is best for their child's education by expanding school choice, reforms such as increasing access to quality charter schools and magnet schools, protecting home schools from federal interference, and launching a pilot program that will encourage excellent schools to enroll harder to serve students.    While these reforms are encouraging, education leaders in state capitals and local school districts are the real reason why the promise of school choice has touched the lives of so many parents and children. The progress we have seen over the last 25 years is remarkable.    The school choice movement began in Milwaukee, Wisconsin in 1990, where local leaders piloted the first private school choice program, known as the Milwaukee Parental Choice Program. The pilot provided low income families scholarships to attend a quality school.    Since then, the program has paved the way for thousands of students to receive a better education and inspired 27 other states to create different types of private school choice programs, many of which have been credited with helping students graduate not only from high school but from college as well.    My home state of Minnesota was not far behind Milwaukee in expanding educational opportunities for students and families. We never really consider ourselves behind Milwaukee, but in 1991, the state passed the nation's first charter school law, providing parents an alternative public school option that better met their child's needs.    Today, more than 40 states have passed charter school laws opening the doors to thousands of schools that have served millions of students.    These are just a few examples of how school choice is helping students and families. Last week marked the 5th Annual National School Choice Week, where more than 16,000 events in all 50 states showcased the success of school choice from private school scholarships and public charter schools, to home schooling and education savings accounts.    In all its forms, school choice has provided real hope to mom's, dad's, and children across the country.    Today, as we learn more about how states and local communities are expanding school choice, I encourage my colleagues to ask how we can support these efforts and help more children receive the education they deserve.    With that, I will yield to the Ranking Member, Mr. Scott, for his opening remarks.</t>
   </si>
   <si>
     <t>400364</t>
   </si>
   <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Scott. Thank you, Mr. Chairman. Today, we will discuss the private school choice initiatives that have proliferated throughout the country for the last 20 years.    As you know, educational funds provided by the Federal Government do not exist in a vacuum. Drastic cuts in general education budgets in a number of states threaten the ability to fully implement initiatives to improve the quality of education for students nationwide.    Today, we have before us yet another challenge to the limited pool of funding, one that serves to divert public funds to subsidize the private education of a relatively small number of children at the expense of a larger majority attending public schools.    More broadly, the legacy of ESEA that improvements in education support a basic civil right and should benefit all of our children--that concept is at risk.    Private school choice programs, be they vouchers or tax credits and educational savings accounts, purport to be part of that same legacy. They also claim to provide the neediest children with the ability to make a choice to attend higher performing schools beyond their means.    State-collected data show that more than two-thirds of the students in the Wisconsin Choice Program and about half of the Indiana voucher recipients were enrolled in private schools before they received the voucher. Instead of providing a choice to students in underperforming schools, these programs are using public money to pay tuition for students already in private schools.    Mr. Chairman, in the early 1990s, this committee had a subcommittee hearing in Wisconsin, and information we gleaned from that hearing showed that the cost of covering those who were already in private schools, the cost of providing them with a voucher, would have diverted the equivalent of about $25,000 per classroom into private vouchers, denying the people in public schools that benefit.    In addition to these programs not serving a population they were legislatively created to support, once advertised as protecting a civil right for low-income families and their children, private school choice programs in Wisconsin, North Carolina, and Florida are raising eligibility requirements to emaking tuition assistance available to those from much higher income brackets.    The impact of these changes is not readily apparent considering that not all programs require schools to accept vouchers as full tuition compensation. The family well below the poverty level faces limitations in the choice of schools available to them - limitations that families with more resources do not suffer.    An example of this can be found right here in our nation's capital where over half of the participants in the D.C. Opportunity Program are enrolled in just 8 out of 50 schools. Tuition at these schools is entirely covered by the voucher, but less than a quarter of all available schools have viable options, and the idea that parents have a real choice must be called into question.    Once families overcome barriers to admissions due to financial concerns, private school choice sleave them and their students without the protections required of public school systems enforced by federal statutes.    Studies have indicated that students in voucher programs are less likely to have equitable access to key services such as ESOL and special education, services that private schools in many states are not obligated to provide.    Regarding attrition in programs like Wisconsin's Parental School Choice Program, one study found that those who leave by choice or otherwise tend to be the more disadvantaged than those who remain.    Families are enrolling in private schools with the expectation that they will provide greater academic outcomes for their families and their children but sadly, this is frequently not the case. Evidence of private schools participating in choice programs increasing academic achievement compared to public schools is limited. number of studies in Cleveland, Milwaukee, and Washington, D.C. found no positive effects on student achievement as a result of participation. In fact, participation in scholarship programs in Louisiana was found to have a substantial negative effect on academic achievement in math, reading, science, and social studies.    Today, we are left discussing the false choice for families in need, one that puts at risk the idea of our shared future successes, which is most certain when we invest in equitable education and educational opportunities for all students, and this may threaten the basic civil rights protections of the students that we are trying to protect.    Mr. Chairman, I look forward to the testimony of our witnesses, and yield back the balance of my time.</t>
   </si>
   <si>
@@ -67,6 +82,12 @@
     <t>400643</t>
   </si>
   <si>
+    <t>Foxx</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Foxx. Thank you, Chairman Kline. Today, I have the honor of introducing a witness hailing from my home State of North Carolina, Representative Rob Bryan. He is well qualified to serve as a witness on education and school choice as he spent his first two years after college in the Teach for America Program at a classroom in inner-city Los Angeles. Today, he is also a member of BEST North Carolina, where he works with the North Carolina Teacher of the Year, James Ford, to identify the best evidence based strategies to pay, evaluate, and retain teachers.    Representative Bryan is a member of the North Carolina House of Representatives, where he is the chairman of the Education Appropriations Subcommittee, and a member of the Education Committee. He also co-chaired the North Carolina General Assembly's Educator Compensation and Effectiveness Taskforce.    In addition to his work in education, Representative Bryan serves as a lawyer at the Womble Carlyle Sandridge &amp; Rice law firm. He graduated from fine North Carolina universities, UNC-Chapel Hill and the Duke University's Law School. He and his wife, Dottie have six children and attend Uptown Church. It may be his parenting six children that give him the best expertise.</t>
   </si>
   <si>
@@ -79,24 +100,36 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Robinson</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Robinson. Good morning, Chairman Kline, Ranking Member Scott, members of the committee. My name is Gerard Robinson. I am a Resident Fellow at the American Enterprise Institute. What I share with you today are my own opinions and do not necessarily reflect those of the AEI.    I have had an opportunity to work in education since 1991, and I have seen the impact of school choice policies and programs on families and children through the lens of an advocate, president of a non-profit organization, state leader in Virginia and Florida, and as a researcher.    I can tell you quite clearly that school choice is not a sound bite, it is a social movement. From 1990 to 2015, over 40 states have introduced different types of school choice legislation, both public and private. Today, I will talk briefly about four, charter schools, vouchers, tax credits, and education savings accounts.    I have had an opportunity to see all these programs in action, and one thing I would like to say up front is there is a misconception that school choice only helps wealthy families. The reality is families with means already exercise school choice. They do so by moving into neighborhoods where they have great schools, both public and private. School choice is simply expanding the doors of opportunity to families who may not have that opportunity.    One example is in the charter school movement what started off initially as an experiment to provide teachers a stronger voice and innovative ideas in public schools has now mushroomed into a movement where we have 2.9 million students in 43 states in 6,723 charter schools, who are doing well.    Taxpayers and families simply want to know one thing, do they work. According to a CREDO study in 2015 that looked at 42 areas in 22 states, they identified there were at least 40 days' worth of learning gain for students in math, and 28 days in reading. There was particular growth for African American students, 36 learning days for math and 26 for reading. Similar growth for Hispanic students. We also found growth as well for Asian students, particularly in math.    Frankly, there were also some challenges, our Native American students and some of our white students scored less well than their peers.    We move now to vouchers, it was mentioned earlier, vouchers in Milwaukee. I had a chance to work there firsthand. Same question, is it making a difference? Well, according to at least 13 gold standard studies, six have found that the students in a voucher program had gains, four in particular found there were gains for African American students, two found no major differences, and at least one found there were negative differences, particularly in the sciences and math, and in particular, that was Louisiana.    Vouchers made a tremendous impact on the lives of students in Milwaukee and other areas, and we can talk further about that point.    Tax credits, I would say one of the faster growing movements in the private school sector. You now have a number of students, over approximately 200,000, who are involved in tax credits. The same question, do they work?    If you take a look at Florida, which has the largest tax credit program in the country, over 72,000 students there, Dr. Figlio, a professor at Northwestern University, studied a program for a number of years, and he found two things. In a 2014 study, he identified there was at least a year's growth for students who were in that program.    Why is that important? The majority of the students who participated in that program, (a) came from lower performing public schools and tend to be among the lower performing students who left public schools, and secondly, they have an opportunity now to see gains in that area.    Next is education savings accounts. We now have those in Florida, Mississippi, Nevada, Tennessee, and it started off in Arizona. Smaller movement, but we expect to see some growth in that area. There are currently 6,772 students who are involved in that program in Florida, Arizona, and Mississippi.    If there is something that Congress can do to support school choice, here are a few examples. Number one is to encourage states to take full advantage of language that you have in ESSA to allow them to be innovative with public funds.    Number two is to make Title I funds portable. I know that caused a great deal of consternation for the Congress, maybe one place where we can find middle ground is to allow states to make that decision.    Third is to make IDEA funds available through a statewide voucher. Fourth is to continue to support statewide vouchers. Fifth, either direct the Congressional Budget Office or the General Accounting Office to figure out what federal regulations are in place, to how we can streamline those to help funds support ESSAs, and lastly, redesign 529s so families can have that information earlier.    Thank you for your time.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Kline. Thank you for your testimony. Mr. Bryan?</t>
   </si>
   <si>
+    <t>Bryan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bryan. It is an honor for me to be here this morning. As you guys are well aware, legislators, like the laborers in the Bible parables, arrive at different times and play different roles in harvesting and planting crops. By that I mean sponsoring and getting good legislation passed.    Working for school choice and opportunity scholarships in particular has been a long labor. In North Carolina, there was much sowing of seeds to expand opportunities for parents and students across our state.    As a freshman legislator in 2013, I had the privilege of arriving at the right time to be a part of those first fruits for school choice in North Carolina.    By way of my background, and going back about 20 years, I was an early Teach for America teacher in a bilingual classroom in inner-city Los Angeles. Between my two years of teaching, I was the first intern at the Center for Education Reform right here in D.C.    These experiences have shaped my perspective as a legislator and made me a fan of expanding school choice options, especially for low income families who typically have the fewest options.    All this led me to be the primary sponsor of the opportunity scholarship law, which provides roughly 6,000 low income students and their families a scholarship to go to the school of their choice. Moreover, I am proud that this historic legislation had bipartisan leadership, with two Republicans and two Democrats serving as the primary sponsors standing together to make this opportunity a reality for thousands of students.    We also had our state's first school choice program, the special needs education grant, passed in 2011, which was also passed with broad bipartisan support.    Unfortunately, many establishment folks in education and often the press are not fans of opportunity scholarships. They outline fears and pessimism, concerns over bad schools and lack of regulation, while neglecting our hopes, the opportunities, and the evidence.    As a lawyer, I appreciate looking at the evidence. There are significant pieces of evidence that are available in discussing opportunity scholarships. I think in reverse order of importance, they are that opportunity scholarships actually save money, both at the state and local level. They improve public schools, and most importantly, they improve outcomes for students.    I think this has been good policy for North Carolina and for the rest of the country. Where does this policy intersect with reality for the families in each of your districts and mine? It is easy for us to fail to recognize the real lives impacted. The needs of these families are compelling. The opportunity scholarship program and our existing special needs program have provided new opportunities and challenges.    Our special needs scholarship to date, all the funds have been used, and there are over 500 families on a waiting list. Our opportunity scholarship program has over 13,000 applicants, and this figure will go up as the application period has just opened again.    I know numbers are thrown at all of us constantly, but please try to individualize these numbers. Think about each one of the families that is hoping, waiting for a scholarship. I have had to look these parents in the eyes, and it can wait no longer. We need to provide choices for them.    Distinguished members of this committee, we expect options and choices in today's world. Many families who can afford to are already exercising those options.    I am happy to say that North Carolina through the passage and implementation of these scholarship programs is now creating pathways for lower income and working families to participate in parental school choice, and they are doing so by the thousands.    Unfortunately, thousands more need your help. Although I am here representing the great State of North Carolina, I know there are other states like ours who appreciate the fact that you, our members of the United States House of Representatives, are exploring ideas of how more can be done to help families like the ones I have described.    I am also glad to be here to highlight the impact, the positive impact opportunity scholarships are having in North Carolina. As I look out my window on the 35th floor, I look down and see First Baptist Church. First Baptist Church is now housing the Brookstone Schools, which is an academically excellent urban Christian school serving low-income families. This school has a rich history of engaging, educating, and empowering students that come out of poverty and often the most dysfunction families and communities.    Brookstone Schools participate in the opportunity scholarship program where they have enrolled 23 students this year. I am fortunate to see much of the City of Charlotte out my window, but this view of the Brookstone Schools has become my favorite.    Chairman Kline and Ranking Member Scott, and distinguished members of the committee, I want to thank you again for your initiative in holding this hearing, and I am honored to have had the opportunity to share with you this morning.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Kline. Thank you, sir. Dr. Huerta?</t>
   </si>
   <si>
+    <t>Huerta</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Huerta. Good morning, Chairman Kline, Ranking Member Scott, and members of the House Education and Workforce Committee. Thank you for the opportunity to speak with you this morning.    My presentation this morning will focus on many of the claims promoted by many voucher advocates followed by a discussion of assumptions linked to these claims, and more importantly, the evidence that provides facts that dispel the many claims, some of which we have already heard.    I will focus on issues of achievement, as well as less discussed issues linked to the supply side response and potential pitfalls that have not been considered by policy makers as voucher and tuition tax credit programs go to scale.    The first claim that we often hear is that private schools are more cost effective and efficient in educating all students compared to public schools. This claim equates private school tuition often with the cost of actually educating students, and assumes that private schools can actually educate all students, including special ed, limited English proficient, and other students with higher needs, more cost effectively than public schools.    The claim fails to acknowledge that the cost differentials including services provided and types of students that are served are important in fully accounting for the real cost of voucher and tuition tax credit programs.    Measuring the cost effectiveness of private schools must also weigh the quality amount of services provided to all students, including the number and types of students, church subsidies and endowments that are provided that are not accounted for in public accounting, low cost facilities and low wage teachers. We know teachers in private schools usually earn about 20 to 25 percent less than public schools. The administrative and financial burdens of operating these choice programs which fall on the state.    In addition, measuring efficiency must also weigh the challenges of taking voucher and tuition tax credit programs to scale. Increased demand for private schooling will require participating private schools to actually address the needs of all students with diversities, and provide services equivalent to the public school systems, which could essentially address some of these cost differentials.    The next claim that we often hear is voucher and tuition tax credit programs will enhance school choice by making private school tuition more affordable and increasing access for all students.    This claim assumes that voucher and tuition tax credit programs offer an adequate economic incentive to offset the cost of private school tuition for all families. This claim fails to acknowledge that the expansion of private school choice is more dependent on a criteria schools use in choosing students and less dependent on giving parents the ability to choose schools.    Private school tuition rates are not regulated by states, nor do states actually collect accurate information on private school tuition rates. Without an accurate account of actual tuition costs, parents are not informed of additional costs they must bear. The scholarship amounts may result in only partial payment in some cases, which will threaten the guarantee that is linked to most state constitutions, to provide a free and public education.    Another issue that is seldom not talked about is tuition elasticity, which is dependent on which private schools participate, the subsidy amounts, and the types of students that private schools actually serve.    Because states do not regulate tuition prices, families that use the benefit to enter private schools today may not have sufficient residual income to pay for tuition later.    Another issue is supply side response, which is seldom accounted for, and that is specifically the extent of open seats that are available and how open seats should become made available as we go to scale.    The U.S. Conference of Catholic Bishops has been very active in lobbying for tuition subsidies, and it is also realistic in acknowledging that a much larger benefit is needed to entice families to exit public schools. There have been estimates by the Minnesota Catholic Conference that for them to actually increase the supply of empty seats, they would have to have a subsidy in the amount of $14,000 to $16,000 to actually increase capital improvements.    I am going to switch to academic achievement issues, which has already been mentioned. The claim is that private schools are more effective than public schools in addressing students' academic needs and improving students' educational outcomes.    This claim assumes that private schools are more effective in serving the educational needs of all students, including special ed, English language learners, and other students.    Evidence of voucher program effectiveness remains uncertain, and with inconsistent effects on student academic growth, and thus, these results should be interpreted with high caution.    For example, an analysis of voucher studies completed prior to 2009 by C.E. Rouse, professor at Princeton, concluded that research on vouchers finds relatively small achievement gains for voucher students, most of which are not statistically different than zero, and secondary effects on remaining public schools, such as competition, are not positive.    Voucher advocates continue to cite the so-called ``gold standard studies'' promoted by the Friedman Foundation. Remember, the Friedman Foundation is a voucher advocacy group, irresponsibly failing to acknowledge that many limitations that the very authors of these studies warn against in their research have not been posted on their Web site.    Specifically, the studies promoted by the Friedman Foundation failed to report inconsistent findings across these so-called gold standard studies. For example, some of the studies reflect positive gains for some students but not across all grade levels that received the voucher treatment. Some studies that reflect positive impacts do not include all voucher students, leaving out a significant portion of the sample. Also, most positive effects are isolated to a specific grade level and to a specific student characteristic, and seldom in both reading and math, and across all grade levels.    In other words, results are haphazard, inconsistent, and some of the very authors that are cited in these so-called gold standard studies actually worry about these inconsistent results that should not be used to inform policy decisions.    We already heard the most recent findings from the D.C. Opportunity Scholarship Program where there was no conclusive evidence of the students that participated after 5 years, and we have also heard about the Louisiana study that recently came out, where we actually see some negative effects on students that actually took on vouchers.    Lastly, Lubienski &amp; Lubienski, and Chris Lubienski has testified before this committee, looked at a study that has looked at public versus traditional school achievement, has indicated that when we control for specific characteristics, that public schools in general outperform kids that are in private schools.    I will provide more recommendations in the question and answer session. Thank you for your time.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Kline. Thank you. Ms. Merriweather, you are recognized.</t>
   </si>
   <si>
+    <t>Merriweather</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Merriweather. Good morning. Thank you so much for having me today. It is an esteemed honor to share my story with everyone.    When I was growing up, college was a dream that I did not even know I had, and if it was not for the educational option Florida gave me 12 years ago, I would not be sitting here today.    If you were to rewind my life back when I was in elementary school, you would see someone totally different, someone who was disruptive, the teachers dreaded having come through the door, someone who got into physical fights with her classmates, someone who was destined to drop out before she made it to high school, but thankfully, I did not become a statistic.    Growing up, I was a student who did not pick up concepts and ideas very quickly, and I struggled to keep up with my classmates. I moved around town constantly when I lived with my biological mother, and consequently, that meant I missed a lot of days of school, my grades were terrible, and everything seemed to go down hill.    Each time I moved, it was very hard for me to adjust to my different school, the different teachers, different classmates. I got picked on by students because I was doing so poorly in school. I was often bullied. I kept getting into fights, and to make matters worse, I ended up failing the third grade not once but twice.    All too well, it seemed my future was mapped out for me. I would follow in the footsteps of my mother, my brother, and my uncle, who all dropped out of school.    I hated going to school, and it was a nightmare. I thought school was a punishment for being the kid. One of the first things my godmother wanted to do when I began to live with her permanently the summer before my 6th grade year, was to find a better school environment for me, and that is when she heard about Esprit de Corps Center for Learning, a small private school in Jacksonville, Florida, but she could not afford the tuition.    A friend of hers told her about the tax credit scholarship program, Step Up for Students. Although she had to pay a little bit more to go along with the scholarship, she was willing to sacrifice for my education. And to be honest, Esprit de Corps was just the change I needed.    Before I even stepped foot on my new school's campus, I met with one of the teachers there, and she helped me to learn my times tables with my reading because it was so low, and some other concepts that I could not grasp. When I started at Esprit de Corps in the 6th grade, the adjustment was fairly smooth because of the extra attention that I received.    This class size was so small, I only had eight students in my class, and it was awesome because the teachers could walk around and ask us questions about things that we had questions on and things we did not know we had questions on.    As the time at Esprit de Corps passed, by the first semester, my grades went from Ds and Fs to As and Bs, and I continued to make the Honor Roll constantly.    I say here to you guys today that Esprit de Corps really changed my life. It gave me a new perspective on education, and it gave me a passion to want to learn. They even helped me to fund my ACT, SAT, and college application fees.    The motto at Esprit de Corps is a school where learning is a joy, excellence is the norm, and superiority is our goal, and that was insistently graved into me. Although when I first started at Esprit de Corps, I was behind, it became a competition, and I wanted to meet their expectations.    In 2010, I became the first in my family to graduate from high school, and in 2014, I became the first in my family to earn my Bachelor's degree, and in 2017, I will be the first to earn my graduate degree.    The cycle of poverty is ending in my family because of the Florida tax credit scholarship. I received a quality education and because of my example, my siblings are now seeing how to take advantage of educational opportunities that come their way.    I am committed to advocating for educational options because so many doors have been opened for me, and I want to create those same open doors for other students. I have seen the power of tailored education demonstrated in my own life, and I would like to see it expanded in future generations and in this one.    It has proven to be effective in my life, school choice, and I am so thankful to share my story with you guys today. Thank you so much.</t>
   </si>
   <si>
@@ -106,6 +139,12 @@
     <t>412540</t>
   </si>
   <si>
+    <t>Messer</t>
+  </si>
+  <si>
+    <t>Luke</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Messer. Thank you, Mr. Chairman. You are a man of your word. Thank you for holding this hearing. You are a great advocate for kids and have spent a career as an advocate for educational choice opportunities.    Ms. Merriweather, I am moved by your story. As somebody who has worked very hard on these issues in Indiana before my time in Congress, I have talked to hundreds of people who have a story just like yours. It is part of why I have so much passion for this issue.    You know, there are several reasons that I am so passionate about school choice. Part of it is I believe it is the civil rights issue of our time. It gets to the essence of the American idea, this idea in the second paragraph of the Declaration of Independence, that we all are endowed by our creator with the right to pursue happiness. In modern life, we take that as your opportunity to live the American dream. To have that dream a reality in modern America, it all starts with an education.    Secondly, I am passionate about this because, you know, there is a lot in this debate that is complicated, but there are some things that are not very complicated. To me, what is not very complicated is this: if we want to determine what the best option is for a child, we ought to ask their parents. The best way to determine what is the best path for a child's future is to let that parent decide what is the best option for them.    I have seen in Indiana what happens when those options open up. In Indiana, we now have 200,000 families, 200,000 kids, who are taking advantage of educational opportunities through vouchers, through charters, through public school choice opportunities, virtual school, and the like.    It is amazing, as Mr. Bryan talked about, as he has seen in North Carolina. When the families come--each year, we have a rally at our state house where thousands of families show up. They are part of this program and advocating for it to continue in the future. Those families are a mosaic of our state. Every race, color, and creed, religion, economic background, all just looking for an opportunity to have their shot at the American dream.    You know, today's conversation will no doubt talk about a lot of the complexities that come with providing educational opportunities for kids in America, what is the appropriate role of the Federal Government, what's the pitfalls, philosophical concerns.    All that debate is legitimate; right? We all need to remember as we work through that debate that as we wait, as we frankly dither, millions of kids in this country are going to go to a school today where they do not really have a chance to succeed, and we can do better. We can make sure that every kid in America has a chance.    So now, with that, and again I appreciate the chairman giving me the opportunity to start here, you know, it is interesting as we talk about statistics, one of the things that has changed as this movement, as Mr. Robinson talked about, has evolved, is the popularity of these programs.    A recent poll came out, released just a few days ago, by the Beck Research and the American Federation for Children, and it says choice programs, educational choice are favored, 74 percent of parents favor these options, 23 percent oppose. Seventy-six percent of African Americans favor, 20 oppose. Seventy-six percent of Latino's favor, 21 oppose. Millennials now, 75 percent favor.    Mr. Robinson, could you talk a little, why do you think these programs--why do you think parents support school choice?</t>
   </si>
   <si>
@@ -178,6 +217,12 @@
     <t>412327</t>
   </si>
   <si>
+    <t>Fudge</t>
+  </si>
+  <si>
+    <t>Marcia</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Fudge. Thank you so much, Mr. Chairman. Thank you all for being here today. Ms. Merriweather, my sincere congratulations to you for the work you have done. I represent tens of thousands of children just like you, and certainly hope they have the same opportunity that you had. Congratulations to you.    I am an advocate, as many of you are, for the proposition that all children have access to a quality education. I just wish that my colleagues would fight as much for those with no choice as they do for those who have a choice.    Mr. Bryan, you indicate that the opportunity scholarships improve student outcomes. If this is the case, please explain to me why there is such resistance from private schools to report out data on yearly student performance and on their school and class demographics, just as public schools must.</t>
   </si>
   <si>
@@ -223,6 +268,12 @@
     <t>412310</t>
   </si>
   <si>
+    <t>Roe</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Roe. Thank you, Chairman. Full disclosure, there are no charter schools in my district. Mr. Robinson, you started out by saying that families make a choice when they move, and you are absolutely right. I remember when I moved my family to Johnson City, Tennessee. I looked for the best public school there was because I had gone to public schools my entire life. I wanted my children to go to good public schools, but I could that because I had the resources to buy a house in that neighborhood.    Ms. Merriweather, whose story was unbelievable and an incredible story, did not have that choice. Fortunately, because someone took an interest and saw real talent in that young woman and invested time in her, she is going to be an advocate for other people. That is one of the most compelling stories I have heard, and a big shout out to you for that.    I do have full disclosure. I do have one son, and all my children went to public schools, but I have one son, with a heavy heart, I have to tell you, has a graduate degree from Vanderbilt. I am very sad about that being a UT graduate.    The point is an education is your ticket out. It is the only chance you have. What I cannot understand, if you are going to a failing school, why anybody would want to keep a child in that school. Why would you let them try if you are failing, why would you not let that child, whatever you have to do, because they only have one chance, and I can tell you, a parent does not give a hoot about meta-analysis or anything else, what they care about is they want their child safe and they want their child learning, and parents know that. They know when they go to a school--a school has a reputation just like a doctor or lawyer or anything else, and we know where kids go and learn.    Look, I do not know the answer to all this, but I do know the answer is not keeping a kid in a school that is not working for them.    I would like to ask any of you to answer this. What is the role or does the Federal Government have any role in this part of public education, a voucher system? Mr. Robinson, I will start with you. What role do you see for the government? Expand it, shrink it, what is it?</t>
   </si>
   <si>
@@ -250,6 +301,12 @@
     <t>412585</t>
   </si>
   <si>
+    <t>Pocan</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Pocan. Thank you, Mr. Chairman. I also want to thank you for holding this hearing. Let me just add to the echo, Ms. Merriweather, congratulations and thank you for sharing your story. I think your story is what makes a teacher proud they chose the profession they chose, and it is a testament to what good teachers and small class sizes can do, so thank you for sharing that.    However, unlike Mr. Messer, I think I have a little different experience when it comes to taxpayer funded voucher programs. I spent 14 years in the Wisconsin legislature. I was not around for the creation of the program, but I was around for 14 years of the growth of the program.    Let me just kind of share my perspective of how things worked in Wisconsin. When we first started the program, we had money going to schools where the person who ran the school said he could put his hand on a book and read it. We had money going to schools where they bought Cadillacs with the money for administrators for the program.    From there, some accountability standards came in, but as Ms. Fudge brought out, there is still a problem with accountability and records.    I went to South Division High School in Milwaukee, a public school, with a low graduation rate of about 50 percent, but when a student came from one of these taxpayer funded voucher schools, there there was absolutely no records that came with them, so you were starting with a blank slate, so while there may be freedom for that school, there is no accountability or anything for the student who is trying to go to that high school and how to place that person. That is part of the records that we had.    When I look at the Wisconsin experience, those schools can select their students. We had a real controversy especially with students with disabilities. The American Legislative Exchange Council, which is a corporate bill mill that puts out all these different bills, had a special needs scholarship bill--- sounds just like what North Carolina passed - every disability group in the state opposed it because they know what is going to happen: more dollars will leave the public school system and go to private schools, and only a few children will benefit from that, but in general, the public schools are going to be left with some of the tougher kids, which costs more for the system, and ultimately that hurts public education even more.    They lacked the accountability that I mentioned. We had schools shut down. In Wisconsin alone, we had schools shut down literally overnight that took taxpayer money, and that cost to the taxpayers was about $176 million in the State of Wisconsin. That is the experience that we had.    Ultimately, it diverted resources from our public school system, and it is the government's responsibility to make sure children have access to that opportunity of education.    That was our experience. And then, I remember when Governor Pence came before this committee and I asked him about the rollout in Indiana. I think he said somewhere between 40 and 50 percent of the kids who came into the program already attended a private school.    In Wisconsin, the last expansion we had, 79 percent of the people already attended a private school who went into that program.    That is not so much about education policy, that is really kind of like a tax policy. I guess my question to Dr. Huerta especially, my experience that I am offering from my state, how different, are we the anomaly compared to these other states' experiences, and can you just tell me how that helps public education?</t>
   </si>
   <si>
@@ -265,6 +322,12 @@
     <t>412278</t>
   </si>
   <si>
+    <t>Guthrie</t>
+  </si>
+  <si>
+    <t>Brett</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Guthrie. Thank you, Mr. Chairman. Thank you, Ms. Merriweather. Again, I will echo. I think you said you were a South Florida student. Western Kentucky University is in my district or my home town. We got to play in a bowl game. I say that because you hired our coach away from us, beloved Willie Taggart. I hope you have a chance to meet him or his wife because they are fantastic people and class act, and wish him the best, and thanks for coming here today.    You said this opportunity kept you from being a statistic, and it seems as we are listening to this now, you are a statistic because we are talking about 79 percent this, 81 percent that. What we are seeing is lives that change.    I think there was one study, I think, that was quoted that said did not show gains but the worse other than that was on average there are no gains. It gave you an opportunity to find the school that fit for you. I think those are things we have to recognize.    You said also that the voucher or the tax credit did not completely cover your tuition, but it made it affordable for your godmother to be able to make that choice for you. I think a lot of things that we are hearing negative towards choice and use of public funds for giving people other educational opportunities, you seem to be debunking because it seems to fit your life and you are in a graduate program, so we really appreciate you being here and sharing your story because it is important for us to hear.    I worked in the state legislature as well, Mr. Bryan. Thanks for your work. The education area is where I worked. My kids went to public schools. I have one that is a senior in high school, had fantastic opportunities. I think somebody said 95 percent of schools are successful. I do not know what the number is, but a vast number of Kentucky schools are extremely successful.    I will tell you there are some schools that I got to visit that weren't, and I really tried to do a recovery program for schools in distress. We could not do charters or vouchers. That just was not going to happen politically in Kentucky at the time. I think the time is coming.    We were able to do substantial things through bipartisan, and one of my biggest partners in trying to get it through the House was the different Majority than mine, the Urban League. The leader of the Urban League in Lexington saw the schools that typically were inner-city schools, although we have rural schools that have issues and failure.    Now, I think maybe the time has come in Kentucky. We have a new Governor, closely aligned legislature that might move forward on charter schools.    The question--I think there are fair points that were brought up, how do you ensure that private schools do not cherry pick students, how do you ensure that--I agree with Ms. Fudge, we want to make sure that every tax dollar is accountable.    Mr. Robinson, I guess I am just asking you, Kentucky is looking at our charter schools, and when we talk to Governor Bevin or his new Secretary Heiner, what states prevent some of the problems you are talking about and what states do it right, and what should we look at moving forward? We are talking about charter schools and vouchers as we speak.</t>
   </si>
   <si>
@@ -298,6 +361,12 @@
     <t>412561</t>
   </si>
   <si>
+    <t>Jeffries</t>
+  </si>
+  <si>
+    <t>Hakeem</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Jeffries. Thank you, Mr. Chair. I thank the witnesses for their presence here today.    Dr. Huerta, how does the percentage of private school students who are English language learners compare to the percentage of public school students?</t>
   </si>
   <si>
@@ -379,6 +448,12 @@
     <t>412426</t>
   </si>
   <si>
+    <t>Rokita</t>
+  </si>
+  <si>
+    <t>Todd</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rokita. I thank the chairman for the hearing. I thank the witnesses for their time. I want to first go to Mr. Robinson just to see if he wants to continue with his answer that Mr. Jeffries questioned him about, if you have any more to add to that. Time ran out.</t>
   </si>
   <si>
@@ -418,6 +493,12 @@
     <t>412600</t>
   </si>
   <si>
+    <t>Clark</t>
+  </si>
+  <si>
+    <t>Katherine</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Clark. Thank you, Mr. Chairman. Thank you to all of the panelists who are with us today. I could not agree more than with the gentleman from Indiana when he said that this is the civil rights issue of our time, access to quality education for every single student, no matter what their income, no matter what their zip code is.    Ms. Merriweather, you have an inspiring story that fits right into that narrative of how do we provide that for every single child in this country. It seems like sometimes we get focused on choice is a way to get us to that goal, but choice is not the goal itself.    Representative Bryan, I was looking at some numbers from North Carolina, and these are rough numbers, but there approximately 120,000 students served in private schools, about 60,000 more in charter schools in North Carolina, and you have approximately 1.5 million school age students, children in North Carolina.    How when you were looking at designing your choice programs--did you look at how we build a system? Obviously, you do not have the capacity or anywhere close to serve the majority of children, so how did you look at designing a system that would actually help every child get that opportunity?</t>
   </si>
   <si>
@@ -481,6 +562,12 @@
     <t>412622</t>
   </si>
   <si>
+    <t>Carter</t>
+  </si>
+  <si>
+    <t>Buddy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Carter. Thank you, Mr. Chairman, and thank all of you for being here. Ms. Merriweather, you are a beam of sunshine in our day today. Thank you for being here and thank you for your story. You know it is a honor for us to serve as representatives of the people, but like anything else, sometimes it can be a grind, and sometimes we wonder if we are making a difference, but it is stories like yours that keep us going. Thank you.    I want to ask you, do you know of any other stories similar to yours? Have there been other people, friends of yours, that you have known? You put it so well. I have always said poverty breeds poverty, and we have to break that cycle, and you said that, that cycle has been broken. Do you know of any other examples?</t>
   </si>
   <si>
@@ -517,6 +604,12 @@
     <t>412501</t>
   </si>
   <si>
+    <t>Bonamici</t>
+  </si>
+  <si>
+    <t>Suzanne</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Bonamici. Thank you, Mr. Chairman. It has been an interesting discussion this morning. I want to start by following up on an earlier comment. Representative Bryan mentioned Pell Grants as if they were analogous to vouchers, but we have not as a country made access to higher education a universal right like we have with K-12 education. If we do, then it will be a sound analogy, but without that, we are talking apples and oranges.    It has been just a couple of months since our committee helped pass the Every Student Succeeds Act, which was a historic achievement, upholding the civil rights legacy of the original Elementary and Secondary Education Act.    That legacy was really part of a sustained commitment to deliver support to underserved public schools so every student in every community has access to a high-quality education.    Ms. Merriweather, your story is very inspiring. In fact, it inspires me to work even harder to make sure that every student in every school has caring teachers and small classes and high expectations.    I am concerned that today we are discussing the possibility of diverting taxpayer dollars from public schools to give students resources to attend private schools, which frequently are not held accountable to serving all students.    It is also unfortunate that school privatization efforts also tend to be based on the premise that our public schools are failing. That term keeps coming up, ``failing schools.'' Of course, we could do more to strengthen public education for all students, and there are students who struggle more than others in our schools.    We made significant progress with the Every Student Succeeds Act, but let's look at what our schools are doing well, especially when we consider resource challenges and the expectations that we rightly put on our public schools to serve every student, regardless of socioeconomic background, ability, or special needs. Today, drop-out rates are declining, more students are being challenged in advanced courses, and achievement gaps are narrowing.    We as policy makers have a responsibility to ensure an excellent education for all students in our country, and we should continue to work on policies that are consistent with that commitment.    In my district, Beaverton, Oregon is a school district that has several public school options in addition to comprehensive high schools. For example, there is an international school and a science and technology school, arts, and a health careers option, without diverting dollars to private schools. I firmly believe in that kind of choice within the public school system.    Dr. Huerta, I want to follow up on the consequences of school privatization efforts for students with disabilities. There was just an article in the Oregonian Newspaper in my state about Joey. Joey was attending a Catholic school in Portland, and he has Down Syndrome. He had some behavioral issues at school like many students do. His parents are dedicated to their parish, and they were actually paying about $2,000 a month for extra classroom assistance, but the school where Joey's three siblings attended and where his friends are, asked Joey to leave.    Your testimony mentions cost differentials and recognizes that delivering high-quality services to students with disabilities requires an investment of resources. So can you discuss how voucher programs relate to students like Joey and his circumstances? Do they generally offer sufficient resources to permit students like Joey to attend parochial and other private schools?</t>
   </si>
   <si>
@@ -538,6 +631,12 @@
     <t>412446</t>
   </si>
   <si>
+    <t>Heck</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Heck. Thank you, Mr. Chairman. Ms. Merriweather, like my colleagues, I also want to applaud you for appearing here today and sharing your very inspirational story. I can tell you for the five years I have been on this committee, that is the most moving testimony I have heard, so thank you for being here.    My state, Nevada, just passed education savings account legislation last year in 2015, and it was just rolled out just this last month in January. In that legislation, 96 percent of the students statewide would be eligible, special needs and families with incomes up to 100 percent of the free and reduced lunch program standard would be able to receive 100 percent of the basic support for pupils, others would be eligible to get 90 percent of that basic support, tuition, home schooling, tutoring, educational materials and so on.    In a recent poll, 61 percent of those parents in Nevada said they support that program, 21 percent were opposed. Of the 61 percent that were pro, 60 percent were union households, 71 percent were Hispanic households.    The program has been called the first universal ESSA program nationwide by the Friedman Foundation, and in supporting the program, our Governor, Brian Sandoval, stated he believes fixing Nevada's perpetually underperforming education system must include more resources for public schools, and he and our legislature actually increased public school funding in the last session, and quote ``As well as robust options for school choice.'' End quote.    Even with that overwhelming support, as we expected, a court case has been filed challenging the new program.    Mr. Robinson, in your written testimony, you offer several suggestions for congressional action, and you mentioned the possibility of a Government Accountability Office study about how federal funding rules prevent states, and you specifically mentioned Nevada, from using federal education funding to support the SEAs.    Do you have an opinion on how those federal rules could hamper those efforts?</t>
   </si>
   <si>
@@ -559,6 +658,12 @@
     <t>412308</t>
   </si>
   <si>
+    <t>Polis</t>
+  </si>
+  <si>
+    <t>Jared</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Polis. Thank you, Mr. Chairman. I appreciate the committee highlighting School Choice Week, and of course, we are doing it a week late, but you know, it is never too late to celebrate school choice, and we should celebrate school choice all 52 weeks of the year. I want to thank our witnesses for coming before us today.    My home State of Colorado has a number of mechanisms to allow parents to choose schools. We have open enrollment within districts. We have open enrollment between districts. We not only allow districts to charter schools, we have a state chartering network.    The history of incorporating privately run schools into the school choice network has been legally troubled in Colorado. The first attempt in recent history was in 2003 through an opportunity contract program, which effectively required some of the low performing districts to reach out to private providers within their jurisdiction and create contracts to provide for education.    This was struck down by our State Supreme Court on local control grounds. We have local control incorporated into our governing document and in our constitution.    The more recent attempt was at the local level where one of our large suburban school districts, Douglas County, elected a school board that chose to pursue a voucher-like program, and again, while they implemented that for a year, it was struck down by the Supreme Court on very different grounds, namely using state money to fund religious schools. We are one of the states with language in our state's constitution that prohibits that or not.    The status of the voucher program with regard to secular schools remains in question. There were six secular schools in the initial roll out from Douglas County.    My question for Mr. Robinson is given that legal framework we have had in Colorado, the most effective way that we have seen on the ground to incorporate private providers into the public education network has been through contract education.    I see that is not one of the areas you have highlighted. You have highlighted tax credits and vouchers. I wonder if you have any thoughts on contract education, namely making school districts that choose to contract with private providers, and I will give you an example, we have had for well over a decade Denver Public Schools, one of the largest school districts in our state, fluctuates between first and second, contracted with a private provider called Escuela Tlalelolco, a predominately Latino school, and effectively compensated them for the students that were enrolled there.    What are your thoughts on contract education and is that something you might be able to incorporate into your global look at school choice?</t>
   </si>
   <si>
@@ -607,6 +712,12 @@
     <t>400179</t>
   </si>
   <si>
+    <t>Hinojosa</t>
+  </si>
+  <si>
+    <t>Rubén</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Hinojosa. Thank you, Chairman Kline and Ranking Member Scott for today's hearing, giving us an opportunity to focus on the improvement of educational opportunities for all students in every public school.    Mr. Chairman, I ask unanimous consent that my brief opening statement be made part of this hearing.</t>
   </si>
   <si>
@@ -643,6 +754,12 @@
     <t>412625</t>
   </si>
   <si>
+    <t>Allen</t>
+  </si>
+  <si>
+    <t>Rick</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Allen. Yes Sir Thank you, Mr. Chairman, and thank you to the panel for being here today and your testimony on this important subject. Obviously, I think the American people have spoken, and they want choice, and they do want accountability. I think each one of you demonstrated that as well.    Ms. Merriweather, I have had an occasion to visit some universities and some schools in the district. Frankly, in talking with the administration at one of the major universities, I was shocked to learn, I said what is your biggest challenge, and they said the emotional health of our students.    Of course, I remember back on my college days. Those were some of the best days of my life, toughest days, but was a great time in my life.    I was more shocked to go into a fairly wealthy area of the district and talk to an elementary school, and I'm sitting there with the administration, and I said what is your biggest challenge, and they said it is the emotional health of our students.    Now, obviously, there was a time in your life where you were in a bad place. I mean you were dealing with things that I think is unfair for a young person to have to deal with, to be honest with you. I am just totally amazed to hear your courageous and heroic story.    What was it that turned you around? What I told these folks at the elementary school is I said we have to address the mind, the body, and the spirit, the three aspects of the student. What is it that turned your life around?</t>
   </si>
   <si>
@@ -664,6 +781,12 @@
     <t>412607</t>
   </si>
   <si>
+    <t>Adams</t>
+  </si>
+  <si>
+    <t>Alma</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Adams. Thank you, Chairman Kline and Ranking Member Scott. I want to thank the witnesses for testifying. I had another meeting that overlapped. I did have a chance to read your testimony.    Education has been a long passion of mine, especially as it relates to low income students who are often students of color, and I am one of those, graduated from high school, public high school in Newark, New Jersey, grew up in the ghetto. I taught for 40 years as an educator in Greensboro, North Carolina.    I also served in the North Carolina House for 20.5 years, and I did not get a chance to serve with you, Representative Bryan, but while I was there, I was opposed to efforts to funnel our public dollars to voucher programs, and I am still opposed to that today. I do not think that was a good idea.    However, despite the strong efforts, we were left in North Carolina with an opportunity scholarship program, and I think there are still opportunities that are not there for all of our children. Representative Bryan, I know you are a strong proponent of the program, but I have to let my colleagues who are left here know it is not as good as it sounds.    The program was initially struck down as unconstitutional, rightly asserted that the General Assembly was seeking to push average students from low-income families into non-public schools in order to avoid the cost of providing them a sound basic education in public schools.    I just know a greater percentage, 90 percent of our children, will be educated in public schools. Unfortunately, the State Supreme Court overturned this ruling on ideological lines, and to add insult to injury, Chief Justice Marshall or Martin said that those taxpayers who allege that the program failed, failed to show that they suffered harm.    I really find it hard to believe that taking limited funds that the North Carolina legislature chose to cut from public dollars and sending those to private schools that are not held to the same level of accountability is not harmful, it is harmful.    Dr. Huerta, I have a question for you, if you would expound upon some of the harmful outcomes of voucher programs in other states, and offer some insight on what you think North Carolina can expect for low-income students.</t>
   </si>
   <si>
@@ -695,6 +818,12 @@
   </si>
   <si>
     <t>412648</t>
+  </si>
+  <si>
+    <t>Stefanik</t>
+  </si>
+  <si>
+    <t>Elise</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Stefanik. Thank you, Mr. Chairman.    Ms. Merriweather, I want to echo my colleagues' sentiment. Your testimony today was truly inspiring, and the courage and confidence that it takes to testify as a young person before Congress, I commend you for that. I also commend you for your advocacy in ensuring that everyone who is listening to this hearing today understands that achieving a high quality education can truly change your life. Thank you for sharing that empowered story.    I wanted to ask you a question. You talked about small class size, additional teacher help, whether it was with your times tables or your reading comprehension, educating you as a whole person beyond just academic rigor.    Can you give a little bit more detail on what it was like transitioning from your first experience in school to the private school that you attended, and what some of those difference were?</t>
@@ -1073,7 +1202,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H210"/>
+  <dimension ref="A1:I210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1081,7 +1210,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1103,5021 +1232,5913 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>40</v>
+      </c>
+      <c r="G16" t="s">
+        <v>41</v>
+      </c>
       <c r="H16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>40</v>
+      </c>
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
       <c r="H18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
       <c r="H20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
       <c r="H22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
       <c r="H24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G25" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
       <c r="H26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G27" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
       <c r="H28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G29" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G31" t="s">
+        <v>22</v>
+      </c>
       <c r="H31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G33" t="s">
+        <v>22</v>
+      </c>
       <c r="H33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G34" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G35" t="s">
+        <v>22</v>
+      </c>
       <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G36" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G37" t="s">
+        <v>22</v>
+      </c>
       <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
       <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>53</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="G39" t="s">
+        <v>67</v>
+      </c>
       <c r="H39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="I39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G40" t="s">
+        <v>31</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>53</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="G41" t="s">
+        <v>67</v>
+      </c>
       <c r="H41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="I41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G42" t="s">
+        <v>31</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>53</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="G43" t="s">
+        <v>67</v>
+      </c>
       <c r="H43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="I43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G44" t="s">
+        <v>28</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>53</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="G45" t="s">
+        <v>67</v>
+      </c>
       <c r="H45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="I45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G46" t="s">
+        <v>28</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>53</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="G47" t="s">
+        <v>67</v>
+      </c>
       <c r="H47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="I47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G48" t="s">
+        <v>28</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>53</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="G49" t="s">
+        <v>67</v>
+      </c>
       <c r="H49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="I49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G50" t="s">
+        <v>34</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>53</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="G51" t="s">
+        <v>67</v>
+      </c>
       <c r="H51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="I51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>13</v>
+      </c>
       <c r="H52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>68</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G53" t="s">
+        <v>84</v>
+      </c>
       <c r="H53" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>20</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G54" t="s">
+        <v>28</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>68</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G55" t="s">
+        <v>84</v>
+      </c>
       <c r="H55" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>20</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G56" t="s">
+        <v>34</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>68</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G57" t="s">
+        <v>84</v>
+      </c>
       <c r="H57" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I57" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>20</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G58" t="s">
+        <v>34</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>68</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G59" t="s">
+        <v>84</v>
+      </c>
       <c r="H59" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>13</v>
+      </c>
       <c r="H60" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I60" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>77</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G61" t="s">
+        <v>95</v>
+      </c>
       <c r="H61" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I61" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>20</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G62" t="s">
+        <v>34</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>77</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G63" t="s">
+        <v>95</v>
+      </c>
       <c r="H63" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I63" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>13</v>
+      </c>
       <c r="H64" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I64" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>82</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G65" t="s">
+        <v>102</v>
+      </c>
       <c r="H65" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I65" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>20</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G66" t="s">
+        <v>28</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>82</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G67" t="s">
+        <v>102</v>
+      </c>
       <c r="H67" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I67" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>20</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G68" t="s">
+        <v>28</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>82</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G69" t="s">
+        <v>102</v>
+      </c>
       <c r="H69" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I69" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>20</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G70" t="s">
+        <v>37</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>82</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G71" t="s">
+        <v>102</v>
+      </c>
       <c r="H71" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I71" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>20</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G72" t="s">
+        <v>37</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>82</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G73" t="s">
+        <v>102</v>
+      </c>
       <c r="H73" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I73" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G74" t="s">
+        <v>13</v>
+      </c>
       <c r="H74" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I74" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>93</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G75" t="s">
+        <v>115</v>
+      </c>
       <c r="H75" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I75" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>20</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G76" t="s">
+        <v>34</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>93</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G77" t="s">
+        <v>115</v>
+      </c>
       <c r="H77" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I77" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>20</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G78" t="s">
+        <v>31</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>93</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G79" t="s">
+        <v>115</v>
+      </c>
       <c r="H79" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I79" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>20</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G80" t="s">
+        <v>31</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>93</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G81" t="s">
+        <v>115</v>
+      </c>
       <c r="H81" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I81" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>20</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G82" t="s">
+        <v>31</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>93</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G83" t="s">
+        <v>115</v>
+      </c>
       <c r="H83" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I83" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>20</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G84" t="s">
+        <v>31</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>93</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G85" t="s">
+        <v>115</v>
+      </c>
       <c r="H85" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I85" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>20</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G86" t="s">
+        <v>31</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>93</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G87" t="s">
+        <v>115</v>
+      </c>
       <c r="H87" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I87" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>20</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G88" t="s">
+        <v>31</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>93</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G89" t="s">
+        <v>115</v>
+      </c>
       <c r="H89" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I89" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>20</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G90" t="s">
+        <v>31</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>93</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G91" t="s">
+        <v>115</v>
+      </c>
       <c r="H91" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I91" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>20</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G92" t="s">
+        <v>31</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>93</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G93" t="s">
+        <v>115</v>
+      </c>
       <c r="H93" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I93" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>20</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G94" t="s">
+        <v>28</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>93</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G95" t="s">
+        <v>115</v>
+      </c>
       <c r="H95" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I95" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>20</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G96" t="s">
+        <v>28</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>93</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G97" t="s">
+        <v>115</v>
+      </c>
       <c r="H97" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="98" spans="1:8">
+      <c r="I97" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>20</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G98" t="s">
+        <v>28</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>93</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G99" t="s">
+        <v>115</v>
+      </c>
       <c r="H99" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I99" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>13</v>
+      </c>
       <c r="H100" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I100" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>120</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G101" t="s">
+        <v>144</v>
+      </c>
       <c r="H101" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I101" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>20</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G102" t="s">
+        <v>28</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>120</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G103" t="s">
+        <v>144</v>
+      </c>
       <c r="H103" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I103" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>20</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G104" t="s">
+        <v>28</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>120</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G105" t="s">
+        <v>144</v>
+      </c>
       <c r="H105" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I105" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>20</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G106" t="s">
+        <v>28</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>120</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G107" t="s">
+        <v>144</v>
+      </c>
       <c r="H107" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I107" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>20</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G108" t="s">
+        <v>37</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>120</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G109" t="s">
+        <v>144</v>
+      </c>
       <c r="H109" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I109" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>20</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G110" t="s">
+        <v>37</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>120</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G111" t="s">
+        <v>144</v>
+      </c>
       <c r="H111" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I111" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>11</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
+        <v>13</v>
+      </c>
       <c r="H112" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I112" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>133</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="G113" t="s">
+        <v>159</v>
+      </c>
       <c r="H113" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I113" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>20</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G114" t="s">
+        <v>31</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>133</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="G115" t="s">
+        <v>159</v>
+      </c>
       <c r="H115" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I115" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>20</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G116" t="s">
+        <v>31</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>133</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="G117" t="s">
+        <v>159</v>
+      </c>
       <c r="H117" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I117" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>20</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G118" t="s">
+        <v>31</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>133</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="G119" t="s">
+        <v>159</v>
+      </c>
       <c r="H119" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I119" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>20</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G120" t="s">
+        <v>31</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>133</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="G121" t="s">
+        <v>159</v>
+      </c>
       <c r="H121" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I121" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>20</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G122" t="s">
+        <v>31</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>133</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="G123" t="s">
+        <v>159</v>
+      </c>
       <c r="H123" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I123" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>20</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G124" t="s">
+        <v>31</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>133</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="G125" t="s">
+        <v>159</v>
+      </c>
       <c r="H125" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I125" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>20</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G126" t="s">
+        <v>31</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>133</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="G127" t="s">
+        <v>159</v>
+      </c>
       <c r="H127" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I127" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>20</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G128" t="s">
+        <v>34</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>133</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="G129" t="s">
+        <v>159</v>
+      </c>
       <c r="H129" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I129" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>20</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G130" t="s">
+        <v>34</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>133</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="G131" t="s">
+        <v>159</v>
+      </c>
       <c r="H131" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I131" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>11</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G132" t="s">
+        <v>13</v>
+      </c>
       <c r="H132" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I132" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>154</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>181</v>
+      </c>
+      <c r="G133" t="s">
+        <v>182</v>
+      </c>
       <c r="H133" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>183</v>
+      </c>
+      <c r="I133" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>20</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G134" t="s">
+        <v>37</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>154</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>181</v>
+      </c>
+      <c r="G135" t="s">
+        <v>182</v>
+      </c>
       <c r="H135" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>183</v>
+      </c>
+      <c r="I135" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>20</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G136" t="s">
+        <v>31</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>154</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>181</v>
+      </c>
+      <c r="G137" t="s">
+        <v>182</v>
+      </c>
       <c r="H137" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>183</v>
+      </c>
+      <c r="I137" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>20</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G138" t="s">
+        <v>31</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>154</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>181</v>
+      </c>
+      <c r="G139" t="s">
+        <v>182</v>
+      </c>
       <c r="H139" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>183</v>
+      </c>
+      <c r="I139" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>20</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G140" t="s">
+        <v>28</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>154</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>181</v>
+      </c>
+      <c r="G141" t="s">
+        <v>182</v>
+      </c>
       <c r="H141" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>183</v>
+      </c>
+      <c r="I141" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>20</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G142" t="s">
+        <v>28</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>154</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>181</v>
+      </c>
+      <c r="G143" t="s">
+        <v>182</v>
+      </c>
       <c r="H143" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>183</v>
+      </c>
+      <c r="I143" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>11</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G144" t="s">
+        <v>13</v>
+      </c>
       <c r="H144" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I144" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>166</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>195</v>
+      </c>
+      <c r="G145" t="s">
+        <v>196</v>
+      </c>
       <c r="H145" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>197</v>
+      </c>
+      <c r="I145" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>20</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G146" t="s">
+        <v>34</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>166</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>195</v>
+      </c>
+      <c r="G147" t="s">
+        <v>196</v>
+      </c>
       <c r="H147" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>197</v>
+      </c>
+      <c r="I147" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>20</v>
-      </c>
-      <c r="G148" t="s"/>
-      <c r="H148" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G148" t="s">
+        <v>34</v>
+      </c>
+      <c r="H148" t="s"/>
+      <c r="I148" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>166</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>195</v>
+      </c>
+      <c r="G149" t="s">
+        <v>196</v>
+      </c>
       <c r="H149" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>197</v>
+      </c>
+      <c r="I149" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>11</v>
-      </c>
-      <c r="G150" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G150" t="s">
+        <v>13</v>
+      </c>
       <c r="H150" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I150" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>173</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>204</v>
+      </c>
+      <c r="G151" t="s">
+        <v>205</v>
+      </c>
       <c r="H151" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>206</v>
+      </c>
+      <c r="I151" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>20</v>
-      </c>
-      <c r="G152" t="s"/>
-      <c r="H152" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G152" t="s">
+        <v>28</v>
+      </c>
+      <c r="H152" t="s"/>
+      <c r="I152" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>173</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>204</v>
+      </c>
+      <c r="G153" t="s">
+        <v>205</v>
+      </c>
       <c r="H153" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>206</v>
+      </c>
+      <c r="I153" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>20</v>
-      </c>
-      <c r="G154" t="s"/>
-      <c r="H154" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G154" t="s">
+        <v>28</v>
+      </c>
+      <c r="H154" t="s"/>
+      <c r="I154" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>173</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>204</v>
+      </c>
+      <c r="G155" t="s">
+        <v>205</v>
+      </c>
       <c r="H155" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>206</v>
+      </c>
+      <c r="I155" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>11</v>
-      </c>
-      <c r="G156" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G156" t="s">
+        <v>13</v>
+      </c>
       <c r="H156" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I156" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>180</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>213</v>
+      </c>
+      <c r="G157" t="s">
+        <v>214</v>
+      </c>
       <c r="H157" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>215</v>
+      </c>
+      <c r="I157" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>20</v>
-      </c>
-      <c r="G158" t="s"/>
-      <c r="H158" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G158" t="s">
+        <v>28</v>
+      </c>
+      <c r="H158" t="s"/>
+      <c r="I158" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>180</v>
-      </c>
-      <c r="G159" t="s"/>
+        <v>213</v>
+      </c>
+      <c r="G159" t="s">
+        <v>214</v>
+      </c>
       <c r="H159" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>215</v>
+      </c>
+      <c r="I159" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>20</v>
-      </c>
-      <c r="G160" t="s"/>
-      <c r="H160" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G160" t="s">
+        <v>31</v>
+      </c>
+      <c r="H160" t="s"/>
+      <c r="I160" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>180</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>213</v>
+      </c>
+      <c r="G161" t="s">
+        <v>214</v>
+      </c>
       <c r="H161" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>215</v>
+      </c>
+      <c r="I161" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>20</v>
-      </c>
-      <c r="G162" t="s"/>
-      <c r="H162" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G162" t="s">
+        <v>31</v>
+      </c>
+      <c r="H162" t="s"/>
+      <c r="I162" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>180</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>213</v>
+      </c>
+      <c r="G163" t="s">
+        <v>214</v>
+      </c>
       <c r="H163" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>215</v>
+      </c>
+      <c r="I163" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>20</v>
-      </c>
-      <c r="G164" t="s"/>
-      <c r="H164" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G164" t="s">
+        <v>31</v>
+      </c>
+      <c r="H164" t="s"/>
+      <c r="I164" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>180</v>
-      </c>
-      <c r="G165" t="s"/>
+        <v>213</v>
+      </c>
+      <c r="G165" t="s">
+        <v>214</v>
+      </c>
       <c r="H165" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>215</v>
+      </c>
+      <c r="I165" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>11</v>
-      </c>
-      <c r="G166" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G166" t="s">
+        <v>13</v>
+      </c>
       <c r="H166" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I166" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>29</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>40</v>
+      </c>
+      <c r="G167" t="s">
+        <v>41</v>
+      </c>
       <c r="H167" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I167" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>20</v>
-      </c>
-      <c r="G168" t="s"/>
-      <c r="H168" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G168" t="s">
+        <v>37</v>
+      </c>
+      <c r="H168" t="s"/>
+      <c r="I168" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>29</v>
-      </c>
-      <c r="G169" t="s"/>
+        <v>40</v>
+      </c>
+      <c r="G169" t="s">
+        <v>41</v>
+      </c>
       <c r="H169" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I169" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>20</v>
-      </c>
-      <c r="G170" t="s"/>
-      <c r="H170" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G170" t="s">
+        <v>28</v>
+      </c>
+      <c r="H170" t="s"/>
+      <c r="I170" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>29</v>
-      </c>
-      <c r="G171" t="s"/>
+        <v>40</v>
+      </c>
+      <c r="G171" t="s">
+        <v>41</v>
+      </c>
       <c r="H171" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I171" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>11</v>
-      </c>
-      <c r="G172" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G172" t="s">
+        <v>13</v>
+      </c>
       <c r="H172" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I172" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>196</v>
-      </c>
-      <c r="G173" t="s"/>
+        <v>231</v>
+      </c>
+      <c r="G173" t="s">
+        <v>232</v>
+      </c>
       <c r="H173" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>233</v>
+      </c>
+      <c r="I173" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>11</v>
-      </c>
-      <c r="G174" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G174" t="s">
+        <v>13</v>
+      </c>
       <c r="H174" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I174" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>196</v>
-      </c>
-      <c r="G175" t="s"/>
+        <v>231</v>
+      </c>
+      <c r="G175" t="s">
+        <v>232</v>
+      </c>
       <c r="H175" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>233</v>
+      </c>
+      <c r="I175" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>20</v>
-      </c>
-      <c r="G176" t="s"/>
-      <c r="H176" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G176" t="s">
+        <v>31</v>
+      </c>
+      <c r="H176" t="s"/>
+      <c r="I176" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>196</v>
-      </c>
-      <c r="G177" t="s"/>
+        <v>231</v>
+      </c>
+      <c r="G177" t="s">
+        <v>232</v>
+      </c>
       <c r="H177" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>233</v>
+      </c>
+      <c r="I177" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>20</v>
-      </c>
-      <c r="G178" t="s"/>
-      <c r="H178" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G178" t="s">
+        <v>28</v>
+      </c>
+      <c r="H178" t="s"/>
+      <c r="I178" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>196</v>
-      </c>
-      <c r="G179" t="s"/>
+        <v>231</v>
+      </c>
+      <c r="G179" t="s">
+        <v>232</v>
+      </c>
       <c r="H179" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>233</v>
+      </c>
+      <c r="I179" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>20</v>
-      </c>
-      <c r="G180" t="s"/>
-      <c r="H180" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G180" t="s">
+        <v>34</v>
+      </c>
+      <c r="H180" t="s"/>
+      <c r="I180" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>196</v>
-      </c>
-      <c r="G181" t="s"/>
+        <v>231</v>
+      </c>
+      <c r="G181" t="s">
+        <v>232</v>
+      </c>
       <c r="H181" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>233</v>
+      </c>
+      <c r="I181" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>11</v>
-      </c>
-      <c r="G182" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G182" t="s">
+        <v>13</v>
+      </c>
       <c r="H182" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I182" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>196</v>
-      </c>
-      <c r="G183" t="s"/>
+        <v>231</v>
+      </c>
+      <c r="G183" t="s">
+        <v>232</v>
+      </c>
       <c r="H183" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>233</v>
+      </c>
+      <c r="I183" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>11</v>
-      </c>
-      <c r="G184" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G184" t="s">
+        <v>13</v>
+      </c>
       <c r="H184" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I184" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>208</v>
-      </c>
-      <c r="G185" t="s"/>
+        <v>245</v>
+      </c>
+      <c r="G185" t="s">
+        <v>246</v>
+      </c>
       <c r="H185" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>247</v>
+      </c>
+      <c r="I185" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>20</v>
-      </c>
-      <c r="G186" t="s"/>
-      <c r="H186" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G186" t="s">
+        <v>37</v>
+      </c>
+      <c r="H186" t="s"/>
+      <c r="I186" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>208</v>
-      </c>
-      <c r="G187" t="s"/>
+        <v>245</v>
+      </c>
+      <c r="G187" t="s">
+        <v>246</v>
+      </c>
       <c r="H187" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>247</v>
+      </c>
+      <c r="I187" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>20</v>
-      </c>
-      <c r="G188" t="s"/>
-      <c r="H188" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G188" t="s">
+        <v>28</v>
+      </c>
+      <c r="H188" t="s"/>
+      <c r="I188" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>208</v>
-      </c>
-      <c r="G189" t="s"/>
+        <v>245</v>
+      </c>
+      <c r="G189" t="s">
+        <v>246</v>
+      </c>
       <c r="H189" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>247</v>
+      </c>
+      <c r="I189" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>11</v>
-      </c>
-      <c r="G190" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G190" t="s">
+        <v>13</v>
+      </c>
       <c r="H190" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I190" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>215</v>
-      </c>
-      <c r="G191" t="s"/>
+        <v>254</v>
+      </c>
+      <c r="G191" t="s">
+        <v>255</v>
+      </c>
       <c r="H191" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>256</v>
+      </c>
+      <c r="I191" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>20</v>
-      </c>
-      <c r="G192" t="s"/>
-      <c r="H192" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G192" t="s">
+        <v>34</v>
+      </c>
+      <c r="H192" t="s"/>
+      <c r="I192" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>215</v>
-      </c>
-      <c r="G193" t="s"/>
+        <v>254</v>
+      </c>
+      <c r="G193" t="s">
+        <v>255</v>
+      </c>
       <c r="H193" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>256</v>
+      </c>
+      <c r="I193" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>20</v>
-      </c>
-      <c r="G194" t="s"/>
-      <c r="H194" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G194" t="s">
+        <v>34</v>
+      </c>
+      <c r="H194" t="s"/>
+      <c r="I194" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>215</v>
-      </c>
-      <c r="G195" t="s"/>
+        <v>254</v>
+      </c>
+      <c r="G195" t="s">
+        <v>255</v>
+      </c>
       <c r="H195" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>256</v>
+      </c>
+      <c r="I195" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>20</v>
-      </c>
-      <c r="G196" t="s"/>
-      <c r="H196" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G196" t="s">
+        <v>34</v>
+      </c>
+      <c r="H196" t="s"/>
+      <c r="I196" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F197" t="s">
-        <v>215</v>
-      </c>
-      <c r="G197" t="s"/>
+        <v>254</v>
+      </c>
+      <c r="G197" t="s">
+        <v>255</v>
+      </c>
       <c r="H197" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>256</v>
+      </c>
+      <c r="I197" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>11</v>
-      </c>
-      <c r="G198" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G198" t="s">
+        <v>13</v>
+      </c>
       <c r="H198" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I198" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F199" t="s">
-        <v>215</v>
-      </c>
-      <c r="G199" t="s"/>
+        <v>254</v>
+      </c>
+      <c r="G199" t="s">
+        <v>255</v>
+      </c>
       <c r="H199" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>256</v>
+      </c>
+      <c r="I199" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F200" t="s">
-        <v>11</v>
-      </c>
-      <c r="G200" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G200" t="s">
+        <v>13</v>
+      </c>
       <c r="H200" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I200" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F201" t="s">
-        <v>226</v>
-      </c>
-      <c r="G201" t="s"/>
+        <v>267</v>
+      </c>
+      <c r="G201" t="s">
+        <v>268</v>
+      </c>
       <c r="H201" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>269</v>
+      </c>
+      <c r="I201" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F202" t="s">
-        <v>20</v>
-      </c>
-      <c r="G202" t="s"/>
-      <c r="H202" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G202" t="s">
+        <v>37</v>
+      </c>
+      <c r="H202" t="s"/>
+      <c r="I202" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F203" t="s">
-        <v>226</v>
-      </c>
-      <c r="G203" t="s"/>
+        <v>267</v>
+      </c>
+      <c r="G203" t="s">
+        <v>268</v>
+      </c>
       <c r="H203" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>269</v>
+      </c>
+      <c r="I203" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F204" t="s">
-        <v>20</v>
-      </c>
-      <c r="G204" t="s"/>
-      <c r="H204" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G204" t="s">
+        <v>28</v>
+      </c>
+      <c r="H204" t="s"/>
+      <c r="I204" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F205" t="s">
-        <v>226</v>
-      </c>
-      <c r="G205" t="s"/>
+        <v>267</v>
+      </c>
+      <c r="G205" t="s">
+        <v>268</v>
+      </c>
       <c r="H205" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>269</v>
+      </c>
+      <c r="I205" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F206" t="s">
-        <v>20</v>
-      </c>
-      <c r="G206" t="s"/>
-      <c r="H206" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G206" t="s">
+        <v>28</v>
+      </c>
+      <c r="H206" t="s"/>
+      <c r="I206" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F207" t="s">
-        <v>226</v>
-      </c>
-      <c r="G207" t="s"/>
+        <v>267</v>
+      </c>
+      <c r="G207" t="s">
+        <v>268</v>
+      </c>
       <c r="H207" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>269</v>
+      </c>
+      <c r="I207" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F208" t="s">
-        <v>11</v>
-      </c>
-      <c r="G208" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G208" t="s">
+        <v>13</v>
+      </c>
       <c r="H208" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I208" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D209" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F209" t="s">
-        <v>196</v>
-      </c>
-      <c r="G209" t="s"/>
+        <v>231</v>
+      </c>
+      <c r="G209" t="s">
+        <v>232</v>
+      </c>
       <c r="H209" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>233</v>
+      </c>
+      <c r="I209" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D210" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E210" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F210" t="s">
-        <v>11</v>
-      </c>
-      <c r="G210" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G210" t="s">
+        <v>13</v>
+      </c>
       <c r="H210" t="s">
-        <v>236</v>
+        <v>14</v>
+      </c>
+      <c r="I210" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98416.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98416.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="284">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400224</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Kline</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>400364</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Scott</t>
   </si>
   <si>
@@ -80,6 +89,9 @@
   </si>
   <si>
     <t>400643</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Foxx</t>
@@ -1202,7 +1214,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I210"/>
+  <dimension ref="A1:J210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1210,7 +1222,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1235,5910 +1247,6384 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="H16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="H18" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" t="s">
-        <v>34</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" t="s">
-        <v>34</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G29" t="s">
-        <v>34</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G31" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H31" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>35</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" t="s">
         <v>27</v>
       </c>
-      <c r="G32" t="s">
-        <v>31</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" t="s">
-        <v>22</v>
-      </c>
-      <c r="H33" t="s">
-        <v>23</v>
-      </c>
-      <c r="I33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>27</v>
-      </c>
-      <c r="G34" t="s">
-        <v>31</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>35</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G35" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H35" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>27</v>
-      </c>
-      <c r="G36" t="s">
-        <v>28</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>32</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G37" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H37" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I37" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G39" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="H39" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I39" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>27</v>
-      </c>
-      <c r="G40" t="s">
-        <v>31</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>35</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G41" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="H41" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I41" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>27</v>
-      </c>
-      <c r="G42" t="s">
-        <v>31</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>35</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G43" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="H43" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I43" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>27</v>
-      </c>
-      <c r="G44" t="s">
-        <v>28</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>32</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G45" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="H45" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I45" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J45" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>27</v>
-      </c>
-      <c r="G46" t="s">
-        <v>28</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>32</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G47" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="H47" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I47" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>27</v>
-      </c>
-      <c r="G48" t="s">
-        <v>28</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>32</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G49" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="H49" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I49" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J49" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>27</v>
-      </c>
-      <c r="G50" t="s">
-        <v>34</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>38</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G51" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="H51" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I51" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I52" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J52" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G53" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="H53" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I53" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>89</v>
+      </c>
+      <c r="J53" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>27</v>
-      </c>
-      <c r="G54" t="s">
-        <v>28</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>32</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G55" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="H55" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I55" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>89</v>
+      </c>
+      <c r="J55" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>27</v>
-      </c>
-      <c r="G56" t="s">
-        <v>34</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G57" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="H57" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I57" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>89</v>
+      </c>
+      <c r="J57" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>27</v>
-      </c>
-      <c r="G58" t="s">
-        <v>34</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>38</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G59" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="H59" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I59" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>89</v>
+      </c>
+      <c r="J59" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I60" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J60" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G61" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="H61" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I61" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J61" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>27</v>
-      </c>
-      <c r="G62" t="s">
-        <v>34</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>38</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G63" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="H63" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I63" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J63" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I64" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J64" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G65" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="H65" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I65" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J65" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>27</v>
-      </c>
-      <c r="G66" t="s">
-        <v>28</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>32</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G67" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="H67" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I67" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J67" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>27</v>
-      </c>
-      <c r="G68" t="s">
-        <v>28</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>32</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G69" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="H69" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I69" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J69" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>27</v>
-      </c>
-      <c r="G70" t="s">
-        <v>37</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>41</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G71" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="H71" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I71" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J71" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>27</v>
-      </c>
-      <c r="G72" t="s">
-        <v>37</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>41</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G73" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="H73" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I73" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J73" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I74" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J74" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G75" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="H75" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I75" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J75" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>27</v>
-      </c>
-      <c r="G76" t="s">
-        <v>34</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>38</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G77" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="H77" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I77" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J77" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>27</v>
-      </c>
-      <c r="G78" t="s">
-        <v>31</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>35</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G79" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="H79" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I79" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J79" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>27</v>
-      </c>
-      <c r="G80" t="s">
-        <v>31</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>35</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G81" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="H81" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I81" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J81" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>27</v>
-      </c>
-      <c r="G82" t="s">
-        <v>31</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>35</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G83" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="H83" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I83" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J83" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>27</v>
-      </c>
-      <c r="G84" t="s">
-        <v>31</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>35</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G85" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="H85" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I85" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J85" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>27</v>
-      </c>
-      <c r="G86" t="s">
-        <v>31</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>35</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G87" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="H87" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I87" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J87" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>27</v>
-      </c>
-      <c r="G88" t="s">
-        <v>31</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>35</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G89" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="H89" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I89" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J89" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>27</v>
-      </c>
-      <c r="G90" t="s">
-        <v>31</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>35</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G91" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="H91" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I91" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J91" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>27</v>
-      </c>
-      <c r="G92" t="s">
-        <v>31</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>35</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G93" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="H93" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I93" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J93" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>27</v>
-      </c>
-      <c r="G94" t="s">
-        <v>28</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>32</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G95" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="H95" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I95" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J95" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>27</v>
-      </c>
-      <c r="G96" t="s">
-        <v>28</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>32</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G97" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="H97" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I97" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J97" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>27</v>
-      </c>
-      <c r="G98" t="s">
-        <v>28</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>32</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G99" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="H99" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I99" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J99" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G100" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I100" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J100" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G101" t="s">
-        <v>144</v>
+        <v>25</v>
       </c>
       <c r="H101" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I101" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>149</v>
+      </c>
+      <c r="J101" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>27</v>
-      </c>
-      <c r="G102" t="s">
-        <v>28</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>32</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G103" t="s">
-        <v>144</v>
+        <v>25</v>
       </c>
       <c r="H103" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I103" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>149</v>
+      </c>
+      <c r="J103" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>27</v>
-      </c>
-      <c r="G104" t="s">
-        <v>28</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>32</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G105" t="s">
-        <v>144</v>
+        <v>25</v>
       </c>
       <c r="H105" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I105" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>149</v>
+      </c>
+      <c r="J105" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>27</v>
-      </c>
-      <c r="G106" t="s">
-        <v>28</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>32</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G107" t="s">
-        <v>144</v>
+        <v>25</v>
       </c>
       <c r="H107" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I107" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>149</v>
+      </c>
+      <c r="J107" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>27</v>
-      </c>
-      <c r="G108" t="s">
-        <v>37</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>41</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G109" t="s">
-        <v>144</v>
+        <v>25</v>
       </c>
       <c r="H109" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I109" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>149</v>
+      </c>
+      <c r="J109" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>27</v>
-      </c>
-      <c r="G110" t="s">
-        <v>37</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>41</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G111" t="s">
-        <v>144</v>
+        <v>25</v>
       </c>
       <c r="H111" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I111" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>149</v>
+      </c>
+      <c r="J111" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G112" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H112" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I112" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J112" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G113" t="s">
-        <v>159</v>
+        <v>25</v>
       </c>
       <c r="H113" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="I113" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>164</v>
+      </c>
+      <c r="J113" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>27</v>
-      </c>
-      <c r="G114" t="s">
-        <v>31</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>35</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G115" t="s">
-        <v>159</v>
+        <v>25</v>
       </c>
       <c r="H115" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="I115" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>164</v>
+      </c>
+      <c r="J115" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>27</v>
-      </c>
-      <c r="G116" t="s">
-        <v>31</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>35</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G117" t="s">
-        <v>159</v>
+        <v>25</v>
       </c>
       <c r="H117" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="I117" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>164</v>
+      </c>
+      <c r="J117" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>27</v>
-      </c>
-      <c r="G118" t="s">
-        <v>31</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>35</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G119" t="s">
-        <v>159</v>
+        <v>25</v>
       </c>
       <c r="H119" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="I119" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>164</v>
+      </c>
+      <c r="J119" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>27</v>
-      </c>
-      <c r="G120" t="s">
-        <v>31</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>35</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G121" t="s">
-        <v>159</v>
+        <v>25</v>
       </c>
       <c r="H121" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="I121" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>164</v>
+      </c>
+      <c r="J121" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>27</v>
-      </c>
-      <c r="G122" t="s">
-        <v>31</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>35</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G123" t="s">
-        <v>159</v>
+        <v>25</v>
       </c>
       <c r="H123" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="I123" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>164</v>
+      </c>
+      <c r="J123" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>27</v>
-      </c>
-      <c r="G124" t="s">
-        <v>31</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>35</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G125" t="s">
-        <v>159</v>
+        <v>25</v>
       </c>
       <c r="H125" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="I125" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>164</v>
+      </c>
+      <c r="J125" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>27</v>
-      </c>
-      <c r="G126" t="s">
-        <v>31</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>35</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G127" t="s">
-        <v>159</v>
+        <v>25</v>
       </c>
       <c r="H127" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="I127" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>164</v>
+      </c>
+      <c r="J127" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>27</v>
-      </c>
-      <c r="G128" t="s">
-        <v>34</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>38</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G129" t="s">
-        <v>159</v>
+        <v>25</v>
       </c>
       <c r="H129" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="I129" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>164</v>
+      </c>
+      <c r="J129" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>27</v>
-      </c>
-      <c r="G130" t="s">
-        <v>34</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>38</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G131" t="s">
-        <v>159</v>
+        <v>25</v>
       </c>
       <c r="H131" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="I131" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>164</v>
+      </c>
+      <c r="J131" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G132" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H132" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I132" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J132" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G133" t="s">
-        <v>182</v>
+        <v>25</v>
       </c>
       <c r="H133" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I133" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>187</v>
+      </c>
+      <c r="J133" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>27</v>
-      </c>
-      <c r="G134" t="s">
-        <v>37</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>41</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G135" t="s">
-        <v>182</v>
+        <v>25</v>
       </c>
       <c r="H135" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I135" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>187</v>
+      </c>
+      <c r="J135" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>27</v>
-      </c>
-      <c r="G136" t="s">
-        <v>31</v>
-      </c>
-      <c r="H136" t="s"/>
-      <c r="I136" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
+        <v>35</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G137" t="s">
-        <v>182</v>
+        <v>25</v>
       </c>
       <c r="H137" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I137" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>187</v>
+      </c>
+      <c r="J137" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>27</v>
-      </c>
-      <c r="G138" t="s">
-        <v>31</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>35</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G139" t="s">
-        <v>182</v>
+        <v>25</v>
       </c>
       <c r="H139" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I139" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>187</v>
+      </c>
+      <c r="J139" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>27</v>
-      </c>
-      <c r="G140" t="s">
-        <v>28</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>32</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G141" t="s">
-        <v>182</v>
+        <v>25</v>
       </c>
       <c r="H141" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I141" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>187</v>
+      </c>
+      <c r="J141" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>27</v>
-      </c>
-      <c r="G142" t="s">
-        <v>28</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>32</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G143" t="s">
-        <v>182</v>
+        <v>25</v>
       </c>
       <c r="H143" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I143" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>187</v>
+      </c>
+      <c r="J143" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G144" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H144" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I144" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J144" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G145" t="s">
-        <v>196</v>
+        <v>25</v>
       </c>
       <c r="H145" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I145" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>201</v>
+      </c>
+      <c r="J145" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>27</v>
-      </c>
-      <c r="G146" t="s">
-        <v>34</v>
-      </c>
-      <c r="H146" t="s"/>
-      <c r="I146" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
+        <v>38</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G147" t="s">
-        <v>196</v>
+        <v>25</v>
       </c>
       <c r="H147" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I147" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>201</v>
+      </c>
+      <c r="J147" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>27</v>
-      </c>
-      <c r="G148" t="s">
-        <v>34</v>
-      </c>
-      <c r="H148" t="s"/>
-      <c r="I148" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G148" t="s"/>
+      <c r="H148" t="s">
+        <v>38</v>
+      </c>
+      <c r="I148" t="s"/>
+      <c r="J148" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G149" t="s">
-        <v>196</v>
+        <v>25</v>
       </c>
       <c r="H149" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I149" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>201</v>
+      </c>
+      <c r="J149" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G150" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H150" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I150" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J150" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G151" t="s">
-        <v>205</v>
+        <v>25</v>
       </c>
       <c r="H151" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="I151" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>210</v>
+      </c>
+      <c r="J151" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>27</v>
-      </c>
-      <c r="G152" t="s">
-        <v>28</v>
-      </c>
-      <c r="H152" t="s"/>
-      <c r="I152" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G152" t="s"/>
+      <c r="H152" t="s">
+        <v>32</v>
+      </c>
+      <c r="I152" t="s"/>
+      <c r="J152" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G153" t="s">
-        <v>205</v>
+        <v>25</v>
       </c>
       <c r="H153" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="I153" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>210</v>
+      </c>
+      <c r="J153" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>27</v>
-      </c>
-      <c r="G154" t="s">
-        <v>28</v>
-      </c>
-      <c r="H154" t="s"/>
-      <c r="I154" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G154" t="s"/>
+      <c r="H154" t="s">
+        <v>32</v>
+      </c>
+      <c r="I154" t="s"/>
+      <c r="J154" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G155" t="s">
-        <v>205</v>
+        <v>25</v>
       </c>
       <c r="H155" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="I155" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>210</v>
+      </c>
+      <c r="J155" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G156" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H156" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I156" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J156" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G157" t="s">
-        <v>214</v>
+        <v>25</v>
       </c>
       <c r="H157" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="I157" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>219</v>
+      </c>
+      <c r="J157" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>27</v>
-      </c>
-      <c r="G158" t="s">
-        <v>28</v>
-      </c>
-      <c r="H158" t="s"/>
-      <c r="I158" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G158" t="s"/>
+      <c r="H158" t="s">
+        <v>32</v>
+      </c>
+      <c r="I158" t="s"/>
+      <c r="J158" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G159" t="s">
-        <v>214</v>
+        <v>25</v>
       </c>
       <c r="H159" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="I159" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>219</v>
+      </c>
+      <c r="J159" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>27</v>
-      </c>
-      <c r="G160" t="s">
-        <v>31</v>
-      </c>
-      <c r="H160" t="s"/>
-      <c r="I160" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G160" t="s"/>
+      <c r="H160" t="s">
+        <v>35</v>
+      </c>
+      <c r="I160" t="s"/>
+      <c r="J160" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G161" t="s">
-        <v>214</v>
+        <v>25</v>
       </c>
       <c r="H161" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="I161" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="162" spans="1:9">
+      <c r="J161" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>27</v>
-      </c>
-      <c r="G162" t="s">
-        <v>31</v>
-      </c>
-      <c r="H162" t="s"/>
-      <c r="I162" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G162" t="s"/>
+      <c r="H162" t="s">
+        <v>35</v>
+      </c>
+      <c r="I162" t="s"/>
+      <c r="J162" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G163" t="s">
-        <v>214</v>
+        <v>25</v>
       </c>
       <c r="H163" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="I163" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>219</v>
+      </c>
+      <c r="J163" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>27</v>
-      </c>
-      <c r="G164" t="s">
-        <v>31</v>
-      </c>
-      <c r="H164" t="s"/>
-      <c r="I164" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G164" t="s"/>
+      <c r="H164" t="s">
+        <v>35</v>
+      </c>
+      <c r="I164" t="s"/>
+      <c r="J164" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G165" t="s">
-        <v>214</v>
+        <v>25</v>
       </c>
       <c r="H165" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="I165" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>219</v>
+      </c>
+      <c r="J165" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G166" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H166" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I166" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J166" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G167" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="H167" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I167" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J167" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>27</v>
-      </c>
-      <c r="G168" t="s">
-        <v>37</v>
-      </c>
-      <c r="H168" t="s"/>
-      <c r="I168" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G168" t="s"/>
+      <c r="H168" t="s">
+        <v>41</v>
+      </c>
+      <c r="I168" t="s"/>
+      <c r="J168" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G169" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="H169" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I169" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J169" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>27</v>
-      </c>
-      <c r="G170" t="s">
-        <v>28</v>
-      </c>
-      <c r="H170" t="s"/>
-      <c r="I170" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G170" t="s"/>
+      <c r="H170" t="s">
+        <v>32</v>
+      </c>
+      <c r="I170" t="s"/>
+      <c r="J170" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G171" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="H171" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I171" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J171" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G172" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H172" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I172" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J172" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G173" t="s">
-        <v>232</v>
+        <v>25</v>
       </c>
       <c r="H173" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="I173" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>237</v>
+      </c>
+      <c r="J173" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G174" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H174" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I174" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J174" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G175" t="s">
-        <v>232</v>
+        <v>25</v>
       </c>
       <c r="H175" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="I175" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>237</v>
+      </c>
+      <c r="J175" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>27</v>
-      </c>
-      <c r="G176" t="s">
-        <v>31</v>
-      </c>
-      <c r="H176" t="s"/>
-      <c r="I176" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G176" t="s"/>
+      <c r="H176" t="s">
+        <v>35</v>
+      </c>
+      <c r="I176" t="s"/>
+      <c r="J176" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G177" t="s">
-        <v>232</v>
+        <v>25</v>
       </c>
       <c r="H177" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="I177" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="178" spans="1:9">
+      <c r="J177" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>27</v>
-      </c>
-      <c r="G178" t="s">
-        <v>28</v>
-      </c>
-      <c r="H178" t="s"/>
-      <c r="I178" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G178" t="s"/>
+      <c r="H178" t="s">
+        <v>32</v>
+      </c>
+      <c r="I178" t="s"/>
+      <c r="J178" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G179" t="s">
-        <v>232</v>
+        <v>25</v>
       </c>
       <c r="H179" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="I179" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>237</v>
+      </c>
+      <c r="J179" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>27</v>
-      </c>
-      <c r="G180" t="s">
-        <v>34</v>
-      </c>
-      <c r="H180" t="s"/>
-      <c r="I180" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G180" t="s"/>
+      <c r="H180" t="s">
+        <v>38</v>
+      </c>
+      <c r="I180" t="s"/>
+      <c r="J180" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G181" t="s">
-        <v>232</v>
+        <v>25</v>
       </c>
       <c r="H181" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="I181" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>237</v>
+      </c>
+      <c r="J181" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G182" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H182" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I182" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J182" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G183" t="s">
-        <v>232</v>
+        <v>25</v>
       </c>
       <c r="H183" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="I183" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>237</v>
+      </c>
+      <c r="J183" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G184" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H184" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I184" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J184" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G185" t="s">
-        <v>246</v>
+        <v>25</v>
       </c>
       <c r="H185" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="I185" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>251</v>
+      </c>
+      <c r="J185" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>27</v>
-      </c>
-      <c r="G186" t="s">
-        <v>37</v>
-      </c>
-      <c r="H186" t="s"/>
-      <c r="I186" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G186" t="s"/>
+      <c r="H186" t="s">
+        <v>41</v>
+      </c>
+      <c r="I186" t="s"/>
+      <c r="J186" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G187" t="s">
-        <v>246</v>
+        <v>25</v>
       </c>
       <c r="H187" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="I187" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>251</v>
+      </c>
+      <c r="J187" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>27</v>
-      </c>
-      <c r="G188" t="s">
-        <v>28</v>
-      </c>
-      <c r="H188" t="s"/>
-      <c r="I188" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G188" t="s"/>
+      <c r="H188" t="s">
+        <v>32</v>
+      </c>
+      <c r="I188" t="s"/>
+      <c r="J188" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G189" t="s">
-        <v>246</v>
+        <v>25</v>
       </c>
       <c r="H189" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="I189" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>251</v>
+      </c>
+      <c r="J189" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F190" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G190" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H190" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I190" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J190" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F191" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="G191" t="s">
-        <v>255</v>
+        <v>25</v>
       </c>
       <c r="H191" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="I191" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>260</v>
+      </c>
+      <c r="J191" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F192" t="s">
-        <v>27</v>
-      </c>
-      <c r="G192" t="s">
-        <v>34</v>
-      </c>
-      <c r="H192" t="s"/>
-      <c r="I192" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G192" t="s"/>
+      <c r="H192" t="s">
+        <v>38</v>
+      </c>
+      <c r="I192" t="s"/>
+      <c r="J192" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F193" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="G193" t="s">
-        <v>255</v>
+        <v>25</v>
       </c>
       <c r="H193" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="I193" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>260</v>
+      </c>
+      <c r="J193" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F194" t="s">
-        <v>27</v>
-      </c>
-      <c r="G194" t="s">
-        <v>34</v>
-      </c>
-      <c r="H194" t="s"/>
-      <c r="I194" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G194" t="s"/>
+      <c r="H194" t="s">
+        <v>38</v>
+      </c>
+      <c r="I194" t="s"/>
+      <c r="J194" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F195" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="G195" t="s">
-        <v>255</v>
+        <v>25</v>
       </c>
       <c r="H195" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="I195" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>260</v>
+      </c>
+      <c r="J195" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E196" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F196" t="s">
-        <v>27</v>
-      </c>
-      <c r="G196" t="s">
-        <v>34</v>
-      </c>
-      <c r="H196" t="s"/>
-      <c r="I196" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G196" t="s"/>
+      <c r="H196" t="s">
+        <v>38</v>
+      </c>
+      <c r="I196" t="s"/>
+      <c r="J196" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E197" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F197" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="G197" t="s">
-        <v>255</v>
+        <v>25</v>
       </c>
       <c r="H197" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="I197" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>260</v>
+      </c>
+      <c r="J197" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E198" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F198" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G198" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H198" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I198" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J198" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E199" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F199" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="G199" t="s">
-        <v>255</v>
+        <v>25</v>
       </c>
       <c r="H199" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="I199" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+        <v>260</v>
+      </c>
+      <c r="J199" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E200" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F200" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G200" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H200" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I200" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J200" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E201" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F201" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="G201" t="s">
-        <v>268</v>
+        <v>25</v>
       </c>
       <c r="H201" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="I201" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9">
+        <v>273</v>
+      </c>
+      <c r="J201" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E202" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F202" t="s">
-        <v>27</v>
-      </c>
-      <c r="G202" t="s">
-        <v>37</v>
-      </c>
-      <c r="H202" t="s"/>
-      <c r="I202" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G202" t="s"/>
+      <c r="H202" t="s">
+        <v>41</v>
+      </c>
+      <c r="I202" t="s"/>
+      <c r="J202" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E203" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F203" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="G203" t="s">
-        <v>268</v>
+        <v>25</v>
       </c>
       <c r="H203" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="I203" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9">
+        <v>273</v>
+      </c>
+      <c r="J203" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E204" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F204" t="s">
-        <v>27</v>
-      </c>
-      <c r="G204" t="s">
-        <v>28</v>
-      </c>
-      <c r="H204" t="s"/>
-      <c r="I204" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G204" t="s"/>
+      <c r="H204" t="s">
+        <v>32</v>
+      </c>
+      <c r="I204" t="s"/>
+      <c r="J204" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E205" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F205" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="G205" t="s">
-        <v>268</v>
+        <v>25</v>
       </c>
       <c r="H205" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="I205" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9">
+        <v>273</v>
+      </c>
+      <c r="J205" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E206" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F206" t="s">
-        <v>27</v>
-      </c>
-      <c r="G206" t="s">
-        <v>28</v>
-      </c>
-      <c r="H206" t="s"/>
-      <c r="I206" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G206" t="s"/>
+      <c r="H206" t="s">
+        <v>32</v>
+      </c>
+      <c r="I206" t="s"/>
+      <c r="J206" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E207" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F207" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="G207" t="s">
-        <v>268</v>
+        <v>25</v>
       </c>
       <c r="H207" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="I207" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9">
+        <v>273</v>
+      </c>
+      <c r="J207" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E208" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F208" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G208" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H208" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I208" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J208" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C209" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E209" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F209" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G209" t="s">
-        <v>232</v>
+        <v>25</v>
       </c>
       <c r="H209" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="I209" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9">
+        <v>237</v>
+      </c>
+      <c r="J209" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C210" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D210" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E210" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F210" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G210" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H210" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I210" t="s">
-        <v>279</v>
+        <v>16</v>
+      </c>
+      <c r="J210" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
